--- a/exp2/case03/report/motivation/effort-importance/MeasurementModel.xlsx
+++ b/exp2/case03/report/motivation/effort-importance/MeasurementModel.xlsx
@@ -3709,25 +3709,25 @@
         <v>31</v>
       </c>
       <c r="B27" t="n" s="271">
-        <v>0.8664491071512068</v>
+        <v>0.8871071292284674</v>
       </c>
       <c r="C27" t="n" s="272">
-        <v>-0.520244307817274</v>
+        <v>-0.43629112458676317</v>
       </c>
       <c r="D27" t="n" s="273">
-        <v>0.6028933070210318</v>
+        <v>0.6626255205045626</v>
       </c>
       <c r="E27" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F27" t="n" s="275">
-        <v>0.9524000800521446</v>
+        <v>0.960316004437656</v>
       </c>
       <c r="G27" t="n" s="276">
-        <v>-0.20079257004651396</v>
+        <v>-0.16117886713137558</v>
       </c>
       <c r="H27" t="n" s="277">
-        <v>0.840860772859825</v>
+        <v>0.8719525250747704</v>
       </c>
       <c r="I27" t="n" s="278">
         <v>1.0</v>
@@ -3738,25 +3738,25 @@
         <v>32</v>
       </c>
       <c r="B28" t="n" s="271">
-        <v>1.1130640503580023</v>
+        <v>1.1218485519344896</v>
       </c>
       <c r="C28" t="n" s="272">
-        <v>0.5512024495868713</v>
+        <v>0.596222741641495</v>
       </c>
       <c r="D28" t="n" s="273">
-        <v>0.581494901043213</v>
+        <v>0.5510264350984841</v>
       </c>
       <c r="E28" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F28" t="n" s="275">
-        <v>1.1446256228448937</v>
+        <v>1.1499972363718394</v>
       </c>
       <c r="G28" t="n" s="276">
-        <v>0.7298256831442619</v>
+        <v>0.7540205607090844</v>
       </c>
       <c r="H28" t="n" s="277">
-        <v>0.46549674339927205</v>
+        <v>0.4508368758346755</v>
       </c>
       <c r="I28" t="n" s="278">
         <v>1.0</v>
@@ -3767,25 +3767,25 @@
         <v>33</v>
       </c>
       <c r="B29" t="n" s="271">
-        <v>0.9944283929686939</v>
+        <v>0.9454624404342504</v>
       </c>
       <c r="C29" t="n" s="272">
-        <v>-0.03847278996856673</v>
+        <v>-0.22327757954001698</v>
       </c>
       <c r="D29" t="n" s="273">
-        <v>0.9693107258764251</v>
+        <v>0.8233194757643916</v>
       </c>
       <c r="E29" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F29" t="n" s="275">
-        <v>0.9707726217557141</v>
+        <v>0.9426971787849274</v>
       </c>
       <c r="G29" t="n" s="276">
-        <v>-0.11550850493541799</v>
+        <v>-0.2589455240780076</v>
       </c>
       <c r="H29" t="n" s="277">
-        <v>0.9080420796365942</v>
+        <v>0.7956772726092534</v>
       </c>
       <c r="I29" t="n" s="278">
         <v>1.0</v>
@@ -3796,28 +3796,28 @@
         <v>56</v>
       </c>
       <c r="B30" t="n" s="271">
-        <v>1.1641136686406364</v>
+        <v>1.1603002188866178</v>
       </c>
       <c r="C30" t="n" s="272">
-        <v>0.8192289732823916</v>
+        <v>0.8251440588739464</v>
       </c>
       <c r="D30" t="n" s="273">
-        <v>0.41265578740132663</v>
+        <v>0.40928980856262553</v>
       </c>
       <c r="E30" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F30" t="n" s="275">
-        <v>1.359292895649139</v>
+        <v>1.394604450300342</v>
       </c>
       <c r="G30" t="n" s="276">
-        <v>2.5793426910252886</v>
+        <v>2.791505973537981</v>
       </c>
       <c r="H30" t="n" s="277">
-        <v>0.009898853222190808</v>
+        <v>0.0052463389237666</v>
       </c>
       <c r="I30" t="n" s="278">
-        <v>0.04949426611095404</v>
+        <v>0.026231694618833002</v>
       </c>
     </row>
     <row r="31">
@@ -3825,28 +3825,28 @@
         <v>57</v>
       </c>
       <c r="B31" t="n" s="271">
-        <v>1.3834296740556877</v>
+        <v>1.3886205799830553</v>
       </c>
       <c r="C31" t="n" s="272">
-        <v>0.793920758030447</v>
+        <v>0.8017635011958556</v>
       </c>
       <c r="D31" t="n" s="273">
-        <v>0.42724156433277727</v>
+        <v>0.42268977529541707</v>
       </c>
       <c r="E31" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="275">
-        <v>1.423544359312131</v>
+        <v>1.4420888725438776</v>
       </c>
       <c r="G31" t="n" s="276">
-        <v>3.3150560786076504</v>
+        <v>3.4367636155311962</v>
       </c>
       <c r="H31" t="n" s="277">
-        <v>9.16247416020812E-4</v>
+        <v>5.887091524141021E-4</v>
       </c>
       <c r="I31" t="n" s="278">
-        <v>0.006413731912145684</v>
+        <v>0.004120964066898715</v>
       </c>
     </row>
     <row r="32">
@@ -3854,28 +3854,28 @@
         <v>58</v>
       </c>
       <c r="B32" t="n" s="271">
-        <v>1.4525825237320173</v>
+        <v>1.482078732249229</v>
       </c>
       <c r="C32" t="n" s="272">
-        <v>1.0026842817723094</v>
+        <v>1.0523129407956406</v>
       </c>
       <c r="D32" t="n" s="273">
-        <v>0.3160132161385716</v>
+        <v>0.2926559963800946</v>
       </c>
       <c r="E32" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F32" t="n" s="275">
-        <v>1.4886165847667512</v>
+        <v>1.5199764183488294</v>
       </c>
       <c r="G32" t="n" s="276">
-        <v>3.9997922527838496</v>
+        <v>4.2231731404822055</v>
       </c>
       <c r="H32" t="n" s="277">
-        <v>6.33981124897839E-5</v>
+        <v>2.4088662251019272E-5</v>
       </c>
       <c r="I32" t="n" s="278">
-        <v>5.071848999182712E-4</v>
+        <v>1.9270929800815418E-4</v>
       </c>
     </row>
     <row r="33">
@@ -3883,28 +3883,28 @@
         <v>59</v>
       </c>
       <c r="B33" t="n" s="271">
-        <v>1.2338002423400023</v>
+        <v>1.2527093411307217</v>
       </c>
       <c r="C33" t="n" s="272">
-        <v>0.7557009390354478</v>
+        <v>0.8274297700660678</v>
       </c>
       <c r="D33" t="n" s="273">
-        <v>0.4498285209425359</v>
+        <v>0.407993512823693</v>
       </c>
       <c r="E33" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="275">
-        <v>1.259169143700918</v>
+        <v>1.2825292005689828</v>
       </c>
       <c r="G33" t="n" s="276">
-        <v>3.1202443041685584</v>
+        <v>3.364743539662828</v>
       </c>
       <c r="H33" t="n" s="277">
-        <v>0.0018070110347895706</v>
+        <v>7.661483619749165E-4</v>
       </c>
       <c r="I33" t="n" s="278">
-        <v>0.010842066208737424</v>
+        <v>0.004596890171849499</v>
       </c>
     </row>
     <row r="34">
@@ -3912,28 +3912,28 @@
         <v>60</v>
       </c>
       <c r="B34" t="n" s="271">
-        <v>1.2973373243170159</v>
+        <v>1.300880278295408</v>
       </c>
       <c r="C34" t="n" s="272">
-        <v>0.6780806142926908</v>
+        <v>0.6996921348008351</v>
       </c>
       <c r="D34" t="n" s="273">
-        <v>0.49772058142170483</v>
+        <v>0.48411958940038247</v>
       </c>
       <c r="E34" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F34" t="n" s="275">
-        <v>1.3891232058395449</v>
+        <v>1.3930234693724903</v>
       </c>
       <c r="G34" t="n" s="276">
-        <v>5.895948343688788</v>
+        <v>5.901333333345704</v>
       </c>
       <c r="H34" t="n" s="277">
-        <v>3.725355126424665E-9</v>
+        <v>3.6057556056511247E-9</v>
       </c>
       <c r="I34" t="n" s="278">
-        <v>3.3528196137821985E-8</v>
+        <v>3.245180045086012E-8</v>
       </c>
     </row>
     <row r="35">
@@ -3941,25 +3941,25 @@
         <v>61</v>
       </c>
       <c r="B35" t="n" s="271">
-        <v>1.018963124741861</v>
+        <v>0.9893626437178508</v>
       </c>
       <c r="C35" t="n" s="272">
-        <v>1.9255631064367718</v>
+        <v>1.9247243777525216</v>
       </c>
       <c r="D35" t="n" s="273">
-        <v>0.054158949122140476</v>
+        <v>0.054263849045737965</v>
       </c>
       <c r="E35" t="n" s="274">
-        <v>0.4874305420992643</v>
+        <v>0.48837464141164166</v>
       </c>
       <c r="F35" t="n" s="275">
-        <v>1.109830207329294</v>
+        <v>1.103305104363762</v>
       </c>
       <c r="G35" t="n" s="276">
-        <v>0.7405766785076777</v>
+        <v>0.6994321336579914</v>
       </c>
       <c r="H35" t="n" s="277">
-        <v>0.4589501528415237</v>
+        <v>0.4842820119195032</v>
       </c>
       <c r="I35" t="n" s="278">
         <v>1.0</v>

--- a/exp2/case03/report/motivation/effort-importance/MeasurementModel.xlsx
+++ b/exp2/case03/report/motivation/effort-importance/MeasurementModel.xlsx
@@ -2224,7 +2224,7 @@
         <v>50.0</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>0.7674557347674316</v>
+        <v>0.7674557347674317</v>
       </c>
       <c r="F6" t="n" s="36">
         <v>21.0</v>
@@ -2261,13 +2261,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="56">
-        <v>0.15990992032676735</v>
+        <v>0.15990992032676749</v>
       </c>
       <c r="B11" t="n" s="57">
-        <v>0.23986488049015103</v>
+        <v>0.23986488049015123</v>
       </c>
       <c r="C11" t="n" s="58">
-        <v>0.30026175987751186</v>
+        <v>0.3002617598775111</v>
       </c>
     </row>
     <row r="12">
@@ -2298,7 +2298,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="77">
-        <v>52.052826708018266</v>
+        <v>52.05282670801818</v>
       </c>
       <c r="B16" t="n" s="78">
         <v>3.0</v>
@@ -2335,13 +2335,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="98">
-        <v>19.87737425149294</v>
+        <v>19.877374251493976</v>
       </c>
       <c r="B21" t="n" s="99">
-        <v>0.07925255228144405</v>
+        <v>0.0792525522814475</v>
       </c>
       <c r="C21" t="n" s="100">
-        <v>0.08605038981704384</v>
+        <v>0.08605038981704699</v>
       </c>
     </row>
     <row r="22">
@@ -2402,10 +2402,10 @@
         <v>49.0</v>
       </c>
       <c r="F26" t="n" s="124">
-        <v>32.247305798322685</v>
+        <v>32.24730579832272</v>
       </c>
       <c r="G26" t="n" s="125">
-        <v>0.9690122892436728</v>
+        <v>0.9690122892436726</v>
       </c>
       <c r="H26" t="n" s="126">
         <v>1.0</v>
@@ -2428,10 +2428,10 @@
         <v>49.0</v>
       </c>
       <c r="F27" t="n" s="124">
-        <v>37.88887518742283</v>
+        <v>37.88887518742279</v>
       </c>
       <c r="G27" t="n" s="125">
-        <v>0.8753025157002527</v>
+        <v>0.8753025157002541</v>
       </c>
       <c r="H27" t="n" s="126">
         <v>1.0</v>
@@ -2454,10 +2454,10 @@
         <v>49.0</v>
       </c>
       <c r="F28" t="n" s="124">
-        <v>52.052826708018266</v>
+        <v>52.05282670801818</v>
       </c>
       <c r="G28" t="n" s="125">
-        <v>0.3559640892835847</v>
+        <v>0.3559640892835878</v>
       </c>
       <c r="H28" t="n" s="126">
         <v>1.0</v>
@@ -2491,32 +2491,32 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="145">
-        <v>-1.4566452771428047</v>
+        <v>-1.4566452771428038</v>
       </c>
       <c r="B33" t="n" s="146">
-        <v>1.8386198626579882</v>
+        <v>1.8386198626579904</v>
       </c>
       <c r="C33" t="n" s="147">
-        <v>-1.1672736226169196</v>
+        <v>-1.1672736226169187</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="145">
-        <v>-0.2360027897882908</v>
+        <v>-0.23600278978828992</v>
       </c>
       <c r="B34" t="n" s="146">
-        <v>-0.012910721004603332</v>
+        <v>-0.012910721004601555</v>
       </c>
       <c r="C34" t="n" s="147">
-        <v>0.0429107510079616</v>
+        <v>0.04291075100796071</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="145">
-        <v>0.31149513630400083</v>
+        <v>0.31149513630399905</v>
       </c>
       <c r="B35" t="n" s="146">
-        <v>0.8544315724874147</v>
+        <v>0.8544315724874121</v>
       </c>
       <c r="C35" t="n" s="147">
         <v>0.39904024353478196</v>
@@ -2524,13 +2524,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n" s="145">
-        <v>-1.197895307430712</v>
+        <v>-1.1978953074307102</v>
       </c>
       <c r="B36" t="n" s="146">
-        <v>1.1277215989502314</v>
+        <v>1.127721598950234</v>
       </c>
       <c r="C36" t="n" s="147">
-        <v>-0.9032780716767417</v>
+        <v>-0.9032780716767403</v>
       </c>
     </row>
     <row r="37">
@@ -2538,21 +2538,21 @@
         <v>-1.9759106453214912</v>
       </c>
       <c r="B37" t="n" s="146">
-        <v>0.26655345538892794</v>
+        <v>0.2665534553889284</v>
       </c>
       <c r="C37" t="n" s="147">
-        <v>1.3076193307157205</v>
+        <v>1.3076193307157196</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="145">
-        <v>0.8149414312778775</v>
+        <v>0.8149414312778793</v>
       </c>
       <c r="B38" t="n" s="146">
         <v>-1.1736629338723477</v>
       </c>
       <c r="C38" t="n" s="147">
-        <v>1.0124781874438948</v>
+        <v>1.012478187443894</v>
       </c>
     </row>
     <row r="39">
@@ -2563,34 +2563,34 @@
         <v>0.8386198626579895</v>
       </c>
       <c r="C39" t="n" s="147">
-        <v>-1.1672736226169187</v>
+        <v>-1.1672736226169196</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="145">
-        <v>-0.3777320874994796</v>
+        <v>-0.37773208749947695</v>
       </c>
       <c r="B40" t="n" s="146">
-        <v>0.5063444902219603</v>
+        <v>0.5063444902219585</v>
       </c>
       <c r="C40" t="n" s="147">
-        <v>0.7841750792311561</v>
+        <v>0.7841750792311553</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="145">
-        <v>-2.0997794834897197</v>
+        <v>-2.09977948348972</v>
       </c>
       <c r="B41" t="n" s="146">
-        <v>-0.8483543154198889</v>
+        <v>-0.848354315419888</v>
       </c>
       <c r="C41" t="n" s="147">
-        <v>1.2211922482162079</v>
+        <v>1.2211922482162092</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="145">
-        <v>-0.4566452771428047</v>
+        <v>-0.4566452771428038</v>
       </c>
       <c r="B42" t="n" s="146">
         <v>-1.1613801373420105</v>
@@ -2601,21 +2601,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n" s="145">
-        <v>-0.4566452771428047</v>
+        <v>-0.4566452771428038</v>
       </c>
       <c r="B43" t="n" s="146">
-        <v>-0.16138013734201095</v>
+        <v>-0.1613801373420105</v>
       </c>
       <c r="C43" t="n" s="147">
-        <v>-0.16727362261691958</v>
+        <v>-0.1672736226169187</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="145">
-        <v>-0.9759106453214912</v>
+        <v>-0.9759106453214903</v>
       </c>
       <c r="B44" t="n" s="146">
-        <v>0.2665534553889275</v>
+        <v>0.2665534553889284</v>
       </c>
       <c r="C44" t="n" s="147">
         <v>0.30761933071572045</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n" s="145">
-        <v>0.31149513630400083</v>
+        <v>0.31149513630399905</v>
       </c>
       <c r="B45" t="n" s="146">
-        <v>0.8544315724874147</v>
+        <v>0.8544315724874121</v>
       </c>
       <c r="C45" t="n" s="147">
         <v>0.39904024353478196</v>
@@ -2634,21 +2634,21 @@
     </row>
     <row r="46">
       <c r="A46" t="n" s="145">
-        <v>0.5087641669560696</v>
+        <v>0.5087641669560705</v>
       </c>
       <c r="B46" t="n" s="146">
-        <v>-0.2913674128768493</v>
+        <v>-0.2913674128768484</v>
       </c>
       <c r="C46" t="n" s="147">
-        <v>-0.22186130452004527</v>
+        <v>-0.22186130452004615</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="145">
-        <v>1.029806238595759</v>
+        <v>1.0298062385957607</v>
       </c>
       <c r="B47" t="n" s="146">
-        <v>0.13270936759214091</v>
+        <v>0.13270936759213914</v>
       </c>
       <c r="C47" t="n" s="147">
         <v>-0.7417640566538042</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n" s="145">
-        <v>0.284402668824395</v>
+        <v>0.2844026688243959</v>
       </c>
       <c r="B48" t="n" s="146">
-        <v>0.5501790915094675</v>
+        <v>0.5501790915094684</v>
       </c>
       <c r="C48" t="n" s="147">
         <v>-1.4294190952873036</v>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n" s="145">
-        <v>0.7639972102117092</v>
+        <v>0.7639972102117101</v>
       </c>
       <c r="B49" t="n" s="146">
-        <v>-0.012910721004603332</v>
+        <v>-0.012910721004602443</v>
       </c>
       <c r="C49" t="n" s="147">
         <v>-0.9570892489920393</v>
@@ -2681,18 +2681,18 @@
         <v>1.0298062385957598</v>
       </c>
       <c r="B50" t="n" s="146">
-        <v>2.132709367592141</v>
+        <v>2.132709367592139</v>
       </c>
       <c r="C50" t="n" s="147">
-        <v>-2.7417640566538033</v>
+        <v>-2.741764056653806</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="145">
-        <v>1.7639972102117083</v>
+        <v>1.76399721021171</v>
       </c>
       <c r="B51" t="n" s="146">
-        <v>-3.0129107210046033</v>
+        <v>-3.0129107210046024</v>
       </c>
       <c r="C51" t="n" s="147">
         <v>1.0429107510079616</v>
@@ -2700,13 +2700,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n" s="145">
-        <v>-0.2360027897882908</v>
+        <v>-0.23600278978828992</v>
       </c>
       <c r="B52" t="n" s="146">
-        <v>-0.012910721004603332</v>
+        <v>-0.012910721004601555</v>
       </c>
       <c r="C52" t="n" s="147">
-        <v>0.0429107510079616</v>
+        <v>0.04291075100796071</v>
       </c>
     </row>
     <row r="53">
@@ -2717,18 +2717,18 @@
         <v>1.1327093675921391</v>
       </c>
       <c r="C53" t="n" s="147">
-        <v>-0.7417640566538042</v>
+        <v>-0.7417640566538051</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="145">
-        <v>-0.715597331175605</v>
+        <v>-0.7155973311756041</v>
       </c>
       <c r="B54" t="n" s="146">
-        <v>0.5501790915094675</v>
+        <v>0.550179091509468</v>
       </c>
       <c r="C54" t="n" s="147">
-        <v>-0.4294190952873036</v>
+        <v>-0.4294190952873027</v>
       </c>
     </row>
     <row r="55">
@@ -2736,18 +2736,18 @@
         <v>0.45390443999574703</v>
       </c>
       <c r="B55" t="n" s="146">
-        <v>0.17780318155011798</v>
+        <v>0.1778031815501162</v>
       </c>
       <c r="C55" t="n" s="147">
-        <v>0.5780485773233721</v>
+        <v>0.578048577323373</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="145">
-        <v>-0.49123583304393126</v>
+        <v>-0.4912358330439295</v>
       </c>
       <c r="B56" t="n" s="146">
-        <v>0.7086325871231516</v>
+        <v>0.7086325871231507</v>
       </c>
       <c r="C56" t="n" s="147">
         <v>-0.22186130452004438</v>
@@ -2755,21 +2755,21 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="145">
-        <v>0.029806238595758927</v>
+        <v>0.029806238595760703</v>
       </c>
       <c r="B57" t="n" s="146">
-        <v>0.13270936759214091</v>
+        <v>0.13270936759214003</v>
       </c>
       <c r="C57" t="n" s="147">
-        <v>0.2582359433461967</v>
+        <v>0.2582359433461958</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="145">
-        <v>0.31149513630400083</v>
+        <v>0.31149513630399905</v>
       </c>
       <c r="B58" t="n" s="146">
-        <v>0.8544315724874147</v>
+        <v>0.8544315724874121</v>
       </c>
       <c r="C58" t="n" s="147">
         <v>0.39904024353478196</v>
@@ -2777,43 +2777,43 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="145">
-        <v>-1.4912358330439313</v>
+        <v>-1.4912358330439304</v>
       </c>
       <c r="B59" t="n" s="146">
-        <v>-0.2913674128768493</v>
+        <v>-0.2913674128768502</v>
       </c>
       <c r="C59" t="n" s="147">
-        <v>1.7781386954799547</v>
+        <v>1.7781386954799538</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="145">
-        <v>0.029806238595758927</v>
+        <v>0.029806238595760703</v>
       </c>
       <c r="B60" t="n" s="146">
-        <v>0.13270936759214091</v>
+        <v>0.13270936759214003</v>
       </c>
       <c r="C60" t="n" s="147">
-        <v>0.2582359433461967</v>
+        <v>0.2582359433461958</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="145">
-        <v>0.029806238595758927</v>
+        <v>0.029806238595760703</v>
       </c>
       <c r="B61" t="n" s="146">
-        <v>0.13270936759214091</v>
+        <v>0.13270936759214003</v>
       </c>
       <c r="C61" t="n" s="147">
-        <v>0.2582359433461967</v>
+        <v>0.2582359433461958</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="145">
-        <v>0.7639972102117083</v>
+        <v>0.7639972102117092</v>
       </c>
       <c r="B62" t="n" s="146">
-        <v>-1.0129107210046033</v>
+        <v>-1.0129107210046024</v>
       </c>
       <c r="C62" t="n" s="147">
         <v>0.0429107510079616</v>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n" s="145">
-        <v>0.31149513630400083</v>
+        <v>0.31149513630399905</v>
       </c>
       <c r="B63" t="n" s="146">
-        <v>0.8544315724874147</v>
+        <v>0.8544315724874121</v>
       </c>
       <c r="C63" t="n" s="147">
         <v>0.39904024353478196</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n" s="145">
-        <v>0.31149513630400083</v>
+        <v>0.31149513630399905</v>
       </c>
       <c r="B64" t="n" s="146">
-        <v>0.8544315724874147</v>
+        <v>0.8544315724874121</v>
       </c>
       <c r="C64" t="n" s="147">
         <v>0.39904024353478196</v>
@@ -2843,10 +2843,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n" s="145">
-        <v>0.31149513630400083</v>
+        <v>0.31149513630399905</v>
       </c>
       <c r="B65" t="n" s="146">
-        <v>0.8544315724874147</v>
+        <v>0.8544315724874121</v>
       </c>
       <c r="C65" t="n" s="147">
         <v>0.39904024353478196</v>
@@ -2854,21 +2854,21 @@
     </row>
     <row r="66">
       <c r="A66" t="n" s="145">
-        <v>2.024089354678508</v>
+        <v>2.0240893546785106</v>
       </c>
       <c r="B66" t="n" s="146">
-        <v>-1.733446544611072</v>
+        <v>-1.7334465446110716</v>
       </c>
       <c r="C66" t="n" s="147">
-        <v>-0.6923806692842804</v>
+        <v>-0.6923806692842813</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="145">
-        <v>1.0298062385957598</v>
+        <v>1.0298062385957607</v>
       </c>
       <c r="B67" t="n" s="146">
-        <v>-0.86729063240786</v>
+        <v>-0.8672906324078609</v>
       </c>
       <c r="C67" t="n" s="147">
         <v>0.2582359433461958</v>
@@ -2876,54 +2876,54 @@
     </row>
     <row r="68">
       <c r="A68" t="n" s="145">
-        <v>0.284402668824395</v>
+        <v>0.2844026688243959</v>
       </c>
       <c r="B68" t="n" s="146">
         <v>-0.44982090849053247</v>
       </c>
       <c r="C68" t="n" s="147">
-        <v>-0.4294190952873045</v>
+        <v>-0.4294190952873027</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="145">
-        <v>-0.715597331175605</v>
+        <v>-0.7155973311756041</v>
       </c>
       <c r="B69" t="n" s="146">
-        <v>0.5501790915094675</v>
+        <v>0.550179091509468</v>
       </c>
       <c r="C69" t="n" s="147">
-        <v>-0.4294190952873036</v>
+        <v>-0.4294190952873027</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="145">
-        <v>0.2042896236875742</v>
+        <v>0.20428962368757375</v>
       </c>
       <c r="B70" t="n" s="146">
-        <v>-0.6528010988062583</v>
+        <v>-0.6528010988062569</v>
       </c>
       <c r="C70" t="n" s="147">
-        <v>-1.4840081532274372</v>
+        <v>-1.4840081532274363</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="145">
-        <v>0.8149414312778775</v>
+        <v>0.8149414312778793</v>
       </c>
       <c r="B71" t="n" s="146">
         <v>-1.1736629338723477</v>
       </c>
       <c r="C71" t="n" s="147">
-        <v>1.0124781874438948</v>
+        <v>1.012478187443894</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="145">
-        <v>0.2627427797429318</v>
+        <v>0.2627427797429345</v>
       </c>
       <c r="B72" t="n" s="146">
-        <v>0.4257416027999952</v>
+        <v>0.4257416027999943</v>
       </c>
       <c r="C72" t="n" s="147">
         <v>-0.48454135529464093</v>
@@ -2931,35 +2931,35 @@
     </row>
     <row r="73">
       <c r="A73" t="n" s="145">
-        <v>-0.975910645321493</v>
+        <v>-0.9759106453214912</v>
       </c>
       <c r="B73" t="n" s="146">
-        <v>1.266553455388927</v>
+        <v>1.2665534553889293</v>
       </c>
       <c r="C73" t="n" s="147">
-        <v>-0.6923806692842795</v>
+        <v>-0.6923806692842804</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="145">
-        <v>-0.715597331175605</v>
+        <v>-0.7155973311756032</v>
       </c>
       <c r="B74" t="n" s="146">
-        <v>1.5501790915094666</v>
+        <v>1.5501790915094689</v>
       </c>
       <c r="C74" t="n" s="147">
-        <v>-1.4294190952873045</v>
+        <v>-1.4294190952873027</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="145">
-        <v>-1.715597331175604</v>
+        <v>-1.7155973311756032</v>
       </c>
       <c r="B75" t="n" s="146">
-        <v>0.5501790915094675</v>
+        <v>0.5501790915094684</v>
       </c>
       <c r="C75" t="n" s="147">
-        <v>0.5705809047126964</v>
+        <v>0.5705809047126955</v>
       </c>
     </row>
     <row r="76">
@@ -2967,15 +2967,15 @@
         <v>0.7639972102117092</v>
       </c>
       <c r="B76" t="n" s="146">
-        <v>-3.0129107210046033</v>
+        <v>-3.0129107210046024</v>
       </c>
       <c r="C76" t="n" s="147">
-        <v>2.0429107510079607</v>
+        <v>2.0429107510079616</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="145">
-        <v>-0.2360027897882917</v>
+        <v>-0.23600278978828992</v>
       </c>
       <c r="B77" t="n" s="146">
         <v>-1.0129107210046024</v>
@@ -2986,13 +2986,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="145">
-        <v>0.8021046925692881</v>
+        <v>0.802104692569289</v>
       </c>
       <c r="B78" t="n" s="146">
         <v>-1.8722784010497673</v>
       </c>
       <c r="C78" t="n" s="147">
-        <v>0.09672192832325832</v>
+        <v>0.09672192832325921</v>
       </c>
     </row>
     <row r="79">
@@ -3000,10 +3000,10 @@
         <v>0.6222679125005222</v>
       </c>
       <c r="B79" t="n" s="146">
-        <v>-0.49365550977803974</v>
+        <v>-0.4936555097780442</v>
       </c>
       <c r="C79" t="n" s="147">
-        <v>0.7841750792311579</v>
+        <v>0.7841750792311553</v>
       </c>
     </row>
     <row r="80">
@@ -3011,18 +3011,18 @@
         <v>-0.7957103763124254</v>
       </c>
       <c r="B80" t="n" s="146">
-        <v>-0.652801098806258</v>
+        <v>-0.6528010988062565</v>
       </c>
       <c r="C80" t="n" s="147">
-        <v>-0.4840081532274372</v>
+        <v>-0.4840081532274354</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="145">
-        <v>0.7639972102117092</v>
+        <v>0.7639972102117101</v>
       </c>
       <c r="B81" t="n" s="146">
-        <v>-0.012910721004603332</v>
+        <v>-0.012910721004602443</v>
       </c>
       <c r="C81" t="n" s="147">
         <v>-0.9570892489920393</v>
@@ -3030,13 +3030,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n" s="145">
-        <v>0.8149414312778767</v>
+        <v>0.8149414312778784</v>
       </c>
       <c r="B82" t="n" s="146">
-        <v>-0.17366293387234766</v>
+        <v>-0.17366293387234855</v>
       </c>
       <c r="C82" t="n" s="147">
-        <v>0.01247818744389484</v>
+        <v>0.012478187443893951</v>
       </c>
     </row>
     <row r="83">
@@ -3341,28 +3341,28 @@
         <v>5.34</v>
       </c>
       <c r="D6" t="n" s="193">
-        <v>-2.143160061027452</v>
+        <v>-2.143160061027444</v>
       </c>
       <c r="E6" t="n" s="194">
-        <v>-8.754675383546978</v>
+        <v>-8.754675383546923</v>
       </c>
       <c r="F6" t="n" s="195">
-        <v>-9.948234840828588</v>
+        <v>-9.948234840828537</v>
       </c>
       <c r="G6" t="n" s="196">
-        <v>-12.715664262495512</v>
+        <v>-12.715664262495457</v>
       </c>
       <c r="H6" t="n" s="197">
-        <v>-14.619476721443053</v>
+        <v>-14.619476721442998</v>
       </c>
       <c r="I6" t="n" s="198">
-        <v>-15.01525494620512</v>
+        <v>-15.01525494620507</v>
       </c>
       <c r="J6" t="n" s="199">
-        <v>-14.898224434407364</v>
+        <v>-14.898224434407307</v>
       </c>
       <c r="K6" t="n" s="200">
-        <v>-15.002120427192164</v>
+        <v>-15.002120427192107</v>
       </c>
       <c r="L6" t="n" s="201">
         <v>1.0</v>
@@ -3397,28 +3397,28 @@
         <v>4.24</v>
       </c>
       <c r="D7" t="n" s="193">
-        <v>-1.2401189625805114</v>
+        <v>-1.2401189625805034</v>
       </c>
       <c r="E7" t="n" s="194">
-        <v>-7.851634285100037</v>
+        <v>-7.8516342850999825</v>
       </c>
       <c r="F7" t="n" s="195">
-        <v>-8.142152643934708</v>
+        <v>-8.142152643934656</v>
       </c>
       <c r="G7" t="n" s="196">
-        <v>-10.006540967154692</v>
+        <v>-10.006540967154637</v>
       </c>
       <c r="H7" t="n" s="197">
-        <v>-11.007312327655292</v>
+        <v>-11.007312327655237</v>
       </c>
       <c r="I7" t="n" s="198">
-        <v>-10.500049453970421</v>
+        <v>-10.500049453970366</v>
       </c>
       <c r="J7" t="n" s="199">
-        <v>-9.479977843725722</v>
+        <v>-9.479977843725663</v>
       </c>
       <c r="K7" t="n" s="200">
-        <v>-8.680832738063579</v>
+        <v>-8.680832738063524</v>
       </c>
       <c r="L7" t="n" s="201">
         <v>1.0</v>
@@ -3453,28 +3453,28 @@
         <v>5.1</v>
       </c>
       <c r="D8" t="n" s="193">
-        <v>-1.9322026222197994</v>
+        <v>-1.9322026222197919</v>
       </c>
       <c r="E8" t="n" s="194">
-        <v>-8.543717944739324</v>
+        <v>-8.54371794473927</v>
       </c>
       <c r="F8" t="n" s="195">
-        <v>-9.526319963213284</v>
+        <v>-9.526319963213233</v>
       </c>
       <c r="G8" t="n" s="196">
-        <v>-12.082791946072554</v>
+        <v>-12.082791946072502</v>
       </c>
       <c r="H8" t="n" s="197">
-        <v>-13.775646966212445</v>
+        <v>-13.77564696621239</v>
       </c>
       <c r="I8" t="n" s="198">
-        <v>-13.960467752166862</v>
+        <v>-13.96046775216681</v>
       </c>
       <c r="J8" t="n" s="199">
-        <v>-13.632479801561447</v>
+        <v>-13.632479801561397</v>
       </c>
       <c r="K8" t="n" s="200">
-        <v>-13.525418355538596</v>
+        <v>-13.525418355538543</v>
       </c>
       <c r="L8" t="n" s="201">
         <v>1.0</v>
@@ -3641,7 +3641,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="n" s="251">
-        <v>-1.4730745196678556</v>
+        <v>-1.4730745196678559</v>
       </c>
     </row>
     <row r="21">
@@ -3649,7 +3649,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="n" s="251">
-        <v>-0.5861139068068862</v>
+        <v>-0.5861139068068859</v>
       </c>
     </row>
     <row r="22">
@@ -3657,7 +3657,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="n" s="251">
-        <v>-1.2726845574870467</v>
+        <v>-1.2726845574870462</v>
       </c>
     </row>
     <row r="23">
@@ -3709,25 +3709,25 @@
         <v>31</v>
       </c>
       <c r="B27" t="n" s="271">
-        <v>0.8871071292284674</v>
+        <v>0.877498628119636</v>
       </c>
       <c r="C27" t="n" s="272">
-        <v>-0.43629112458676317</v>
+        <v>-0.47441005031851835</v>
       </c>
       <c r="D27" t="n" s="273">
-        <v>0.6626255205045626</v>
+        <v>0.6352075275195369</v>
       </c>
       <c r="E27" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F27" t="n" s="275">
-        <v>0.960316004437656</v>
+        <v>0.9628061194719417</v>
       </c>
       <c r="G27" t="n" s="276">
-        <v>-0.16117886713137558</v>
+        <v>-0.15018576648962392</v>
       </c>
       <c r="H27" t="n" s="277">
-        <v>0.8719525250747704</v>
+        <v>0.8806180552212493</v>
       </c>
       <c r="I27" t="n" s="278">
         <v>1.0</v>
@@ -3738,25 +3738,25 @@
         <v>32</v>
       </c>
       <c r="B28" t="n" s="271">
-        <v>1.1218485519344896</v>
+        <v>1.103671165784875</v>
       </c>
       <c r="C28" t="n" s="272">
-        <v>0.596222741641495</v>
+        <v>0.5091822954509931</v>
       </c>
       <c r="D28" t="n" s="273">
-        <v>0.5510264350984841</v>
+        <v>0.6106244517248935</v>
       </c>
       <c r="E28" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F28" t="n" s="275">
-        <v>1.1499972363718394</v>
+        <v>1.1355810739582761</v>
       </c>
       <c r="G28" t="n" s="276">
-        <v>0.7540205607090844</v>
+        <v>0.68666769335829</v>
       </c>
       <c r="H28" t="n" s="277">
-        <v>0.4508368758346755</v>
+        <v>0.4922921598672532</v>
       </c>
       <c r="I28" t="n" s="278">
         <v>1.0</v>
@@ -3767,25 +3767,25 @@
         <v>33</v>
       </c>
       <c r="B29" t="n" s="271">
-        <v>0.9454624404342504</v>
+        <v>0.959764879255927</v>
       </c>
       <c r="C29" t="n" s="272">
-        <v>-0.22327757954001698</v>
+        <v>-0.1474943965402395</v>
       </c>
       <c r="D29" t="n" s="273">
-        <v>0.8233194757643916</v>
+        <v>0.8827418022737726</v>
       </c>
       <c r="E29" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F29" t="n" s="275">
-        <v>0.9426971787849274</v>
+        <v>0.9751106957256916</v>
       </c>
       <c r="G29" t="n" s="276">
-        <v>-0.2589455240780076</v>
+        <v>-0.08773258652915597</v>
       </c>
       <c r="H29" t="n" s="277">
-        <v>0.7956772726092534</v>
+        <v>0.9300892191693949</v>
       </c>
       <c r="I29" t="n" s="278">
         <v>1.0</v>
@@ -3796,28 +3796,28 @@
         <v>56</v>
       </c>
       <c r="B30" t="n" s="271">
-        <v>1.1603002188866178</v>
+        <v>1.2440163723689668</v>
       </c>
       <c r="C30" t="n" s="272">
-        <v>0.8251440588739464</v>
+        <v>0.861314149073294</v>
       </c>
       <c r="D30" t="n" s="273">
-        <v>0.40928980856262553</v>
+        <v>0.3890650449804576</v>
       </c>
       <c r="E30" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F30" t="n" s="275">
-        <v>1.394604450300342</v>
+        <v>1.3684358034625372</v>
       </c>
       <c r="G30" t="n" s="276">
-        <v>2.791505973537981</v>
+        <v>2.6418071681162143</v>
       </c>
       <c r="H30" t="n" s="277">
-        <v>0.0052463389237666</v>
+        <v>0.00824649918819362</v>
       </c>
       <c r="I30" t="n" s="278">
-        <v>0.026231694618833002</v>
+        <v>0.041232495940968096</v>
       </c>
     </row>
     <row r="31">
@@ -3825,28 +3825,28 @@
         <v>57</v>
       </c>
       <c r="B31" t="n" s="271">
-        <v>1.3886205799830553</v>
+        <v>1.4127301899881923</v>
       </c>
       <c r="C31" t="n" s="272">
-        <v>0.8017635011958556</v>
+        <v>0.8402571712404158</v>
       </c>
       <c r="D31" t="n" s="273">
-        <v>0.42268977529541707</v>
+        <v>0.4007642093647478</v>
       </c>
       <c r="E31" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="275">
-        <v>1.4420888725438776</v>
+        <v>1.4225642541820995</v>
       </c>
       <c r="G31" t="n" s="276">
-        <v>3.4367636155311962</v>
+        <v>3.3309159086580467</v>
       </c>
       <c r="H31" t="n" s="277">
-        <v>5.887091524141021E-4</v>
+        <v>8.656074698474606E-4</v>
       </c>
       <c r="I31" t="n" s="278">
-        <v>0.004120964066898715</v>
+        <v>0.006059252288932225</v>
       </c>
     </row>
     <row r="32">
@@ -3854,28 +3854,28 @@
         <v>58</v>
       </c>
       <c r="B32" t="n" s="271">
-        <v>1.482078732249229</v>
+        <v>1.4795986627308435</v>
       </c>
       <c r="C32" t="n" s="272">
-        <v>1.0523129407956406</v>
+        <v>1.0552035986757677</v>
       </c>
       <c r="D32" t="n" s="273">
-        <v>0.2926559963800946</v>
+        <v>0.29133221866214265</v>
       </c>
       <c r="E32" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F32" t="n" s="275">
-        <v>1.5199764183488294</v>
+        <v>1.4953948549074498</v>
       </c>
       <c r="G32" t="n" s="276">
-        <v>4.2231731404822055</v>
+        <v>4.08106881894426</v>
       </c>
       <c r="H32" t="n" s="277">
-        <v>2.4088662251019272E-5</v>
+        <v>4.482907823398692E-5</v>
       </c>
       <c r="I32" t="n" s="278">
-        <v>1.9270929800815418E-4</v>
+        <v>3.586326258718954E-4</v>
       </c>
     </row>
     <row r="33">
@@ -3883,28 +3883,28 @@
         <v>59</v>
       </c>
       <c r="B33" t="n" s="271">
-        <v>1.2527093411307217</v>
+        <v>1.240112760586685</v>
       </c>
       <c r="C33" t="n" s="272">
-        <v>0.8274297700660678</v>
+        <v>0.7711907804381102</v>
       </c>
       <c r="D33" t="n" s="273">
-        <v>0.407993512823693</v>
+        <v>0.4405938581189485</v>
       </c>
       <c r="E33" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="275">
-        <v>1.2825292005689828</v>
+        <v>1.265547148705552</v>
       </c>
       <c r="G33" t="n" s="276">
-        <v>3.364743539662828</v>
+        <v>3.1903504026854077</v>
       </c>
       <c r="H33" t="n" s="277">
-        <v>7.661483619749165E-4</v>
+        <v>0.0014210038758509275</v>
       </c>
       <c r="I33" t="n" s="278">
-        <v>0.004596890171849499</v>
+        <v>0.008526023255105566</v>
       </c>
     </row>
     <row r="34">
@@ -3912,28 +3912,28 @@
         <v>60</v>
       </c>
       <c r="B34" t="n" s="271">
-        <v>1.300880278295408</v>
+        <v>1.2677305471120406</v>
       </c>
       <c r="C34" t="n" s="272">
-        <v>0.6996921348008351</v>
+        <v>0.6430638374691114</v>
       </c>
       <c r="D34" t="n" s="273">
-        <v>0.48411958940038247</v>
+        <v>0.5201826782235264</v>
       </c>
       <c r="E34" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F34" t="n" s="275">
-        <v>1.3930234693724903</v>
+        <v>1.361636818167443</v>
       </c>
       <c r="G34" t="n" s="276">
-        <v>5.901333333345704</v>
+        <v>5.3974535342348755</v>
       </c>
       <c r="H34" t="n" s="277">
-        <v>3.6057556056511247E-9</v>
+        <v>6.759337130361482E-8</v>
       </c>
       <c r="I34" t="n" s="278">
-        <v>3.245180045086012E-8</v>
+        <v>6.083403417325333E-7</v>
       </c>
     </row>
     <row r="35">
@@ -3941,25 +3941,25 @@
         <v>61</v>
       </c>
       <c r="B35" t="n" s="271">
-        <v>0.9893626437178508</v>
+        <v>0.9885809583203147</v>
       </c>
       <c r="C35" t="n" s="272">
-        <v>1.9247243777525216</v>
+        <v>1.7447373431539666</v>
       </c>
       <c r="D35" t="n" s="273">
-        <v>0.054263849045737965</v>
+        <v>0.08103059984096456</v>
       </c>
       <c r="E35" t="n" s="274">
-        <v>0.48837464141164166</v>
+        <v>0.7292753985686811</v>
       </c>
       <c r="F35" t="n" s="275">
-        <v>1.103305104363762</v>
+        <v>1.1054896604416669</v>
       </c>
       <c r="G35" t="n" s="276">
-        <v>0.6994321336579914</v>
+        <v>0.7140477264268351</v>
       </c>
       <c r="H35" t="n" s="277">
-        <v>0.4842820119195032</v>
+        <v>0.4751976679883408</v>
       </c>
       <c r="I35" t="n" s="278">
         <v>1.0</v>
@@ -5042,16 +5042,16 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="n" s="302">
-        <v>1.474224201039535</v>
+        <v>1.4742242010395363</v>
       </c>
       <c r="G2" t="n" s="303">
-        <v>0.7691269111593475</v>
+        <v>0.7691269111593484</v>
       </c>
       <c r="H2" t="n" s="304">
-        <v>1.5783347516374957</v>
+        <v>1.5783347516374968</v>
       </c>
       <c r="I2" t="n" s="305">
-        <v>0.8725735421561707</v>
+        <v>0.8725735421561724</v>
       </c>
     </row>
     <row r="3">
@@ -5071,16 +5071,16 @@
         <v>2.0</v>
       </c>
       <c r="F3" t="n" s="302">
-        <v>0.011139113547195866</v>
+        <v>0.011139113547195741</v>
       </c>
       <c r="G3" t="n" s="303">
-        <v>-2.627328801191361</v>
+        <v>-2.627328801191362</v>
       </c>
       <c r="H3" t="n" s="304">
-        <v>0.011286973362078939</v>
+        <v>0.0112869733620788</v>
       </c>
       <c r="I3" t="n" s="305">
-        <v>-2.643564041945222</v>
+        <v>-2.643564041945221</v>
       </c>
     </row>
     <row r="4">
@@ -5100,16 +5100,16 @@
         <v>3.0</v>
       </c>
       <c r="F4" t="n" s="302">
-        <v>0.17638587117685636</v>
+        <v>0.1763858711768035</v>
       </c>
       <c r="G4" t="n" s="303">
-        <v>-0.09801089582335787</v>
+        <v>-0.09801089582327349</v>
       </c>
       <c r="H4" t="n" s="304">
-        <v>0.21784417131005995</v>
+        <v>0.21784417130999179</v>
       </c>
       <c r="I4" t="n" s="305">
-        <v>-0.128386769207812</v>
+        <v>-0.12838676920772785</v>
       </c>
     </row>
     <row r="5">
@@ -5129,16 +5129,16 @@
         <v>4.0</v>
       </c>
       <c r="F5" t="n" s="302">
-        <v>0.7472154941410846</v>
+        <v>0.7472154941410855</v>
       </c>
       <c r="G5" t="n" s="303">
-        <v>-0.07081093590616899</v>
+        <v>-0.070810935906168</v>
       </c>
       <c r="H5" t="n" s="304">
-        <v>0.7802189114530603</v>
+        <v>0.7802189114530611</v>
       </c>
       <c r="I5" t="n" s="305">
-        <v>-0.039369011928612474</v>
+        <v>-0.03936901192861125</v>
       </c>
     </row>
     <row r="6">
@@ -5158,16 +5158,16 @@
         <v>5.0</v>
       </c>
       <c r="F6" t="n" s="302">
-        <v>1.3758703306742757</v>
+        <v>1.3758703306742746</v>
       </c>
       <c r="G6" t="n" s="303">
-        <v>0.6802313656203895</v>
+        <v>0.6802313656203889</v>
       </c>
       <c r="H6" t="n" s="304">
-        <v>1.3507197232315091</v>
+        <v>1.3507197232315071</v>
       </c>
       <c r="I6" t="n" s="305">
-        <v>0.6558513144675687</v>
+        <v>0.6558513144675664</v>
       </c>
     </row>
     <row r="7">
@@ -5187,16 +5187,16 @@
         <v>6.0</v>
       </c>
       <c r="F7" t="n" s="302">
-        <v>0.8215346418971216</v>
+        <v>0.8215346418971182</v>
       </c>
       <c r="G7" t="n" s="303">
-        <v>0.021526799802784685</v>
+        <v>0.021526799802776414</v>
       </c>
       <c r="H7" t="n" s="304">
-        <v>0.8757477888458456</v>
+        <v>0.8757477888458365</v>
       </c>
       <c r="I7" t="n" s="305">
-        <v>0.08170081634275897</v>
+        <v>0.08170081634274415</v>
       </c>
     </row>
     <row r="8">
@@ -5216,16 +5216,16 @@
         <v>7.0</v>
       </c>
       <c r="F8" t="n" s="302">
-        <v>0.4734202844081013</v>
+        <v>0.4734202844081017</v>
       </c>
       <c r="G8" t="n" s="303">
-        <v>-0.4864284498471901</v>
+        <v>-0.48642844984718997</v>
       </c>
       <c r="H8" t="n" s="304">
-        <v>0.5026609414183054</v>
+        <v>0.5026609414183061</v>
       </c>
       <c r="I8" t="n" s="305">
-        <v>-0.47039978525512965</v>
+        <v>-0.47039978525512904</v>
       </c>
     </row>
     <row r="9">
@@ -5245,16 +5245,16 @@
         <v>8.0</v>
       </c>
       <c r="F9" t="n" s="302">
-        <v>0.35638808807217925</v>
+        <v>0.3563880880721751</v>
       </c>
       <c r="G9" t="n" s="303">
-        <v>-0.6082498848434281</v>
+        <v>-0.6082498848434565</v>
       </c>
       <c r="H9" t="n" s="304">
-        <v>0.288818338566648</v>
+        <v>0.28881833856665107</v>
       </c>
       <c r="I9" t="n" s="305">
-        <v>-0.9203901048221268</v>
+        <v>-0.920390104822135</v>
       </c>
     </row>
     <row r="10">
@@ -5274,10 +5274,10 @@
         <v>9.0</v>
       </c>
       <c r="F10" t="n" s="302">
-        <v>1.2569565153945987</v>
+        <v>1.256956515394599</v>
       </c>
       <c r="G10" t="n" s="303">
-        <v>0.5630067019848604</v>
+        <v>0.5630067019848612</v>
       </c>
       <c r="H10" t="n" s="304">
         <v>1.4697112904302632</v>
@@ -5303,16 +5303,16 @@
         <v>10.0</v>
       </c>
       <c r="F11" t="n" s="302">
-        <v>0.4455971406658544</v>
+        <v>0.44559714066585315</v>
       </c>
       <c r="G11" t="n" s="303">
-        <v>-0.5409479990746031</v>
+        <v>-0.5409479990746062</v>
       </c>
       <c r="H11" t="n" s="304">
-        <v>0.4480300586272505</v>
+        <v>0.4480300586272495</v>
       </c>
       <c r="I11" t="n" s="305">
-        <v>-0.5792221345003914</v>
+        <v>-0.5792221345003942</v>
       </c>
     </row>
     <row r="12">
@@ -5332,16 +5332,16 @@
         <v>11.0</v>
       </c>
       <c r="F12" t="n" s="302">
-        <v>0.015550097654803982</v>
+        <v>0.015550097654804078</v>
       </c>
       <c r="G12" t="n" s="303">
         <v>-2.3406058405287395</v>
       </c>
       <c r="H12" t="n" s="304">
-        <v>0.01531874928123264</v>
+        <v>0.015318749281232726</v>
       </c>
       <c r="I12" t="n" s="305">
-        <v>-2.459226978293277</v>
+        <v>-2.4592269782932767</v>
       </c>
     </row>
     <row r="13">
@@ -5361,16 +5361,16 @@
         <v>12.0</v>
       </c>
       <c r="F13" t="n" s="302">
-        <v>0.25253568113387076</v>
+        <v>0.25253568113387026</v>
       </c>
       <c r="G13" t="n" s="303">
-        <v>-1.0263652979960862</v>
+        <v>-1.0263652979960882</v>
       </c>
       <c r="H13" t="n" s="304">
-        <v>0.25095035279568545</v>
+        <v>0.2509503527956848</v>
       </c>
       <c r="I13" t="n" s="305">
-        <v>-1.0286115713439283</v>
+        <v>-1.0286115713439303</v>
       </c>
     </row>
     <row r="14">
@@ -5390,16 +5390,16 @@
         <v>13.0</v>
       </c>
       <c r="F14" t="n" s="302">
-        <v>0.17638587117685636</v>
+        <v>0.1763858711768035</v>
       </c>
       <c r="G14" t="n" s="303">
-        <v>-0.09801089582335787</v>
+        <v>-0.09801089582327349</v>
       </c>
       <c r="H14" t="n" s="304">
-        <v>0.21784417131005995</v>
+        <v>0.21784417130999179</v>
       </c>
       <c r="I14" t="n" s="305">
-        <v>-0.128386769207812</v>
+        <v>-0.12838676920772785</v>
       </c>
     </row>
     <row r="15">
@@ -5419,16 +5419,16 @@
         <v>14.0</v>
       </c>
       <c r="F15" t="n" s="302">
-        <v>0.08953260219935401</v>
+        <v>0.08953260219935476</v>
       </c>
       <c r="G15" t="n" s="303">
-        <v>-1.9381277907294812</v>
+        <v>-1.9381277907294718</v>
       </c>
       <c r="H15" t="n" s="304">
-        <v>0.08946998025901949</v>
+        <v>0.08946998025902025</v>
       </c>
       <c r="I15" t="n" s="305">
-        <v>-1.9643859439278175</v>
+        <v>-1.9643859439278082</v>
       </c>
     </row>
     <row r="16">
@@ -5448,16 +5448,16 @@
         <v>15.0</v>
       </c>
       <c r="F16" t="n" s="302">
-        <v>0.4661525321268625</v>
+        <v>0.46615253212686375</v>
       </c>
       <c r="G16" t="n" s="303">
-        <v>-0.6967667169630651</v>
+        <v>-0.6967667169630624</v>
       </c>
       <c r="H16" t="n" s="304">
-        <v>0.4285425007262741</v>
+        <v>0.4285425007262751</v>
       </c>
       <c r="I16" t="n" s="305">
-        <v>-0.7779580027274213</v>
+        <v>-0.7779580027274186</v>
       </c>
     </row>
     <row r="17">
@@ -5477,16 +5477,16 @@
         <v>16.0</v>
       </c>
       <c r="F17" t="n" s="302">
-        <v>0.5644963707362124</v>
+        <v>0.5644963707362127</v>
       </c>
       <c r="G17" t="n" s="303">
         <v>-0.31264599789359765</v>
       </c>
       <c r="H17" t="n" s="304">
-        <v>0.5487189882765404</v>
+        <v>0.548718988276541</v>
       </c>
       <c r="I17" t="n" s="305">
-        <v>-0.35356711813961744</v>
+        <v>-0.35356711813961667</v>
       </c>
     </row>
     <row r="18">
@@ -5506,16 +5506,16 @@
         <v>17.0</v>
       </c>
       <c r="F18" t="n" s="302">
-        <v>0.3482878196736277</v>
+        <v>0.34828781967362915</v>
       </c>
       <c r="G18" t="n" s="303">
-        <v>-0.8368826437145849</v>
+        <v>-0.83688264371458</v>
       </c>
       <c r="H18" t="n" s="304">
-        <v>0.3528963687246729</v>
+        <v>0.35289636872467417</v>
       </c>
       <c r="I18" t="n" s="305">
-        <v>-0.8339348327536205</v>
+        <v>-0.8339348327536154</v>
       </c>
     </row>
     <row r="19">
@@ -5535,16 +5535,16 @@
         <v>18.0</v>
       </c>
       <c r="F19" t="n" s="302">
-        <v>3.538339957429887</v>
+        <v>3.5383399574298937</v>
       </c>
       <c r="G19" t="n" s="303">
-        <v>2.4239163127774654</v>
+        <v>2.42391631277747</v>
       </c>
       <c r="H19" t="n" s="304">
-        <v>3.649808604339292</v>
+        <v>3.649808604339296</v>
       </c>
       <c r="I19" t="n" s="305">
-        <v>2.4769441026509673</v>
+        <v>2.476944102650968</v>
       </c>
     </row>
     <row r="20">
@@ -5564,16 +5564,16 @@
         <v>19.0</v>
       </c>
       <c r="F20" t="n" s="302">
-        <v>3.274168402530611</v>
+        <v>3.274168402530609</v>
       </c>
       <c r="G20" t="n" s="303">
-        <v>2.07606015358098</v>
+        <v>2.0760601535809773</v>
       </c>
       <c r="H20" t="n" s="304">
-        <v>3.233972631240834</v>
+        <v>3.2339726312408335</v>
       </c>
       <c r="I20" t="n" s="305">
-        <v>2.062881451884748</v>
+        <v>2.062881451884746</v>
       </c>
     </row>
     <row r="21">
@@ -5593,16 +5593,16 @@
         <v>20.0</v>
       </c>
       <c r="F21" t="n" s="302">
-        <v>0.011139113547195866</v>
+        <v>0.011139113547195741</v>
       </c>
       <c r="G21" t="n" s="303">
-        <v>-2.627328801191361</v>
+        <v>-2.627328801191362</v>
       </c>
       <c r="H21" t="n" s="304">
-        <v>0.011286973362078939</v>
+        <v>0.0112869733620788</v>
       </c>
       <c r="I21" t="n" s="305">
-        <v>-2.643564041945222</v>
+        <v>-2.643564041945221</v>
       </c>
     </row>
     <row r="22">
@@ -5622,16 +5622,16 @@
         <v>21.0</v>
       </c>
       <c r="F22" t="n" s="302">
-        <v>0.48634042201342936</v>
+        <v>0.48634042201343</v>
       </c>
       <c r="G22" t="n" s="303">
-        <v>-0.6507545334636009</v>
+        <v>-0.6507545334635995</v>
       </c>
       <c r="H22" t="n" s="304">
-        <v>0.5270536042386942</v>
+        <v>0.5270536042386947</v>
       </c>
       <c r="I22" t="n" s="305">
-        <v>-0.5549466053995562</v>
+        <v>-0.5549466053995544</v>
       </c>
     </row>
     <row r="23">
@@ -5651,13 +5651,13 @@
         <v>22.0</v>
       </c>
       <c r="F23" t="n" s="302">
-        <v>0.19463317584410897</v>
+        <v>0.19463317584410922</v>
       </c>
       <c r="G23" t="n" s="303">
         <v>-1.1681893173528313</v>
       </c>
       <c r="H23" t="n" s="304">
-        <v>0.20637761591300968</v>
+        <v>0.2063776159130097</v>
       </c>
       <c r="I23" t="n" s="305">
         <v>-1.1546796574311202</v>
@@ -5680,16 +5680,16 @@
         <v>23.0</v>
       </c>
       <c r="F24" t="n" s="302">
-        <v>0.18839594395296203</v>
+        <v>0.1883959439529629</v>
       </c>
       <c r="G24" t="n" s="303">
-        <v>-0.6387113095441848</v>
+        <v>-0.6387113095441861</v>
       </c>
       <c r="H24" t="n" s="304">
-        <v>0.1347609539529495</v>
+        <v>0.13476095395295</v>
       </c>
       <c r="I24" t="n" s="305">
-        <v>-1.0166816190778893</v>
+        <v>-1.016681619077891</v>
       </c>
     </row>
     <row r="25">
@@ -5709,16 +5709,16 @@
         <v>24.0</v>
       </c>
       <c r="F25" t="n" s="302">
-        <v>0.20880036068580474</v>
+        <v>0.2088003606858048</v>
       </c>
       <c r="G25" t="n" s="303">
-        <v>-1.3598606167829264</v>
+        <v>-1.3598606167829228</v>
       </c>
       <c r="H25" t="n" s="304">
-        <v>0.20382964467733777</v>
+        <v>0.20382964467733775</v>
       </c>
       <c r="I25" t="n" s="305">
-        <v>-1.3985857751420736</v>
+        <v>-1.3985857751420703</v>
       </c>
     </row>
     <row r="26">
@@ -5738,16 +5738,16 @@
         <v>25.0</v>
       </c>
       <c r="F26" t="n" s="302">
-        <v>0.011810361315320273</v>
+        <v>0.011810361315320083</v>
       </c>
       <c r="G26" t="n" s="303">
-        <v>-2.980174862923568</v>
+        <v>-2.9801748629235725</v>
       </c>
       <c r="H26" t="n" s="304">
-        <v>0.011928739503497892</v>
+        <v>0.011928739503497687</v>
       </c>
       <c r="I26" t="n" s="305">
-        <v>-2.954626407875901</v>
+        <v>-2.954626407875905</v>
       </c>
     </row>
     <row r="27">
@@ -5767,16 +5767,16 @@
         <v>26.0</v>
       </c>
       <c r="F27" t="n" s="302">
-        <v>0.17638587117685636</v>
+        <v>0.1763858711768035</v>
       </c>
       <c r="G27" t="n" s="303">
-        <v>-0.09801089582335787</v>
+        <v>-0.09801089582327349</v>
       </c>
       <c r="H27" t="n" s="304">
-        <v>0.21784417131005995</v>
+        <v>0.21784417130999179</v>
       </c>
       <c r="I27" t="n" s="305">
-        <v>-0.128386769207812</v>
+        <v>-0.12838676920772785</v>
       </c>
     </row>
     <row r="28">
@@ -5796,16 +5796,16 @@
         <v>27.0</v>
       </c>
       <c r="F28" t="n" s="302">
-        <v>1.3304135036373241</v>
+        <v>1.330413503637322</v>
       </c>
       <c r="G28" t="n" s="303">
-        <v>0.6480149951651182</v>
+        <v>0.6480149951651153</v>
       </c>
       <c r="H28" t="n" s="304">
-        <v>1.3592965585068981</v>
+        <v>1.3592965585068955</v>
       </c>
       <c r="I28" t="n" s="305">
-        <v>0.6812145425237279</v>
+        <v>0.6812145425237249</v>
       </c>
     </row>
     <row r="29">
@@ -5825,16 +5825,16 @@
         <v>28.0</v>
       </c>
       <c r="F29" t="n" s="302">
-        <v>0.011810361315320273</v>
+        <v>0.011810361315320083</v>
       </c>
       <c r="G29" t="n" s="303">
-        <v>-2.980174862923568</v>
+        <v>-2.9801748629235725</v>
       </c>
       <c r="H29" t="n" s="304">
-        <v>0.011928739503497892</v>
+        <v>0.011928739503497687</v>
       </c>
       <c r="I29" t="n" s="305">
-        <v>-2.954626407875901</v>
+        <v>-2.954626407875905</v>
       </c>
     </row>
     <row r="30">
@@ -5854,16 +5854,16 @@
         <v>29.0</v>
       </c>
       <c r="F30" t="n" s="302">
-        <v>0.011810361315320273</v>
+        <v>0.011810361315320083</v>
       </c>
       <c r="G30" t="n" s="303">
-        <v>-2.980174862923568</v>
+        <v>-2.9801748629235725</v>
       </c>
       <c r="H30" t="n" s="304">
-        <v>0.011928739503497892</v>
+        <v>0.011928739503497687</v>
       </c>
       <c r="I30" t="n" s="305">
-        <v>-2.954626407875901</v>
+        <v>-2.954626407875905</v>
       </c>
     </row>
     <row r="31">
@@ -5883,16 +5883,16 @@
         <v>30.0</v>
       </c>
       <c r="F31" t="n" s="302">
-        <v>0.39430002732769354</v>
+        <v>0.3943000273276935</v>
       </c>
       <c r="G31" t="n" s="303">
-        <v>-0.7261151708092826</v>
+        <v>-0.7261151708092819</v>
       </c>
       <c r="H31" t="n" s="304">
-        <v>0.39181014908012185</v>
+        <v>0.3918101490801219</v>
       </c>
       <c r="I31" t="n" s="305">
-        <v>-0.7398636810055879</v>
+        <v>-0.7398636810055859</v>
       </c>
     </row>
     <row r="32">
@@ -5912,16 +5912,16 @@
         <v>31.0</v>
       </c>
       <c r="F32" t="n" s="302">
-        <v>0.17638587117685636</v>
+        <v>0.1763858711768035</v>
       </c>
       <c r="G32" t="n" s="303">
-        <v>-0.09801089582335787</v>
+        <v>-0.09801089582327349</v>
       </c>
       <c r="H32" t="n" s="304">
-        <v>0.21784417131005995</v>
+        <v>0.21784417130999179</v>
       </c>
       <c r="I32" t="n" s="305">
-        <v>-0.128386769207812</v>
+        <v>-0.12838676920772785</v>
       </c>
     </row>
     <row r="33">
@@ -5941,16 +5941,16 @@
         <v>32.0</v>
       </c>
       <c r="F33" t="n" s="302">
-        <v>0.17638587117685636</v>
+        <v>0.1763858711768035</v>
       </c>
       <c r="G33" t="n" s="303">
-        <v>-0.09801089582335787</v>
+        <v>-0.09801089582327349</v>
       </c>
       <c r="H33" t="n" s="304">
-        <v>0.21784417131005995</v>
+        <v>0.21784417130999179</v>
       </c>
       <c r="I33" t="n" s="305">
-        <v>-0.128386769207812</v>
+        <v>-0.12838676920772785</v>
       </c>
     </row>
     <row r="34">
@@ -5970,16 +5970,16 @@
         <v>33.0</v>
       </c>
       <c r="F34" t="n" s="302">
-        <v>0.17638587117685636</v>
+        <v>0.1763858711768035</v>
       </c>
       <c r="G34" t="n" s="303">
-        <v>-0.09801089582335787</v>
+        <v>-0.09801089582327349</v>
       </c>
       <c r="H34" t="n" s="304">
-        <v>0.21784417131005995</v>
+        <v>0.21784417130999179</v>
       </c>
       <c r="I34" t="n" s="305">
-        <v>-0.128386769207812</v>
+        <v>-0.12838676920772785</v>
       </c>
     </row>
     <row r="35">
@@ -5999,16 +5999,16 @@
         <v>34.0</v>
       </c>
       <c r="F35" t="n" s="302">
-        <v>1.8159254083327339</v>
+        <v>1.8159254083327367</v>
       </c>
       <c r="G35" t="n" s="303">
-        <v>1.0633657829579666</v>
+        <v>1.0633657829579692</v>
       </c>
       <c r="H35" t="n" s="304">
-        <v>1.8336413427085334</v>
+        <v>1.8336413427085343</v>
       </c>
       <c r="I35" t="n" s="305">
-        <v>1.076626740717886</v>
+        <v>1.0766267407178867</v>
       </c>
     </row>
     <row r="36">
@@ -6028,16 +6028,16 @@
         <v>35.0</v>
       </c>
       <c r="F36" t="n" s="302">
-        <v>0.47240298480415227</v>
+        <v>0.47240298480415244</v>
       </c>
       <c r="G36" t="n" s="303">
-        <v>-0.6823810934758647</v>
+        <v>-0.6823810934758643</v>
       </c>
       <c r="H36" t="n" s="304">
-        <v>0.46117172952673413</v>
+        <v>0.4611717295267347</v>
       </c>
       <c r="I36" t="n" s="305">
-        <v>-0.7006221020001342</v>
+        <v>-0.7006221020001323</v>
       </c>
     </row>
     <row r="37">
@@ -6057,16 +6057,16 @@
         <v>36.0</v>
       </c>
       <c r="F37" t="n" s="302">
-        <v>0.08837848184520726</v>
+        <v>0.08837848184520741</v>
       </c>
       <c r="G37" t="n" s="303">
         <v>-1.6327779151932582</v>
       </c>
       <c r="H37" t="n" s="304">
-        <v>0.08511847293233941</v>
+        <v>0.08511847293233955</v>
       </c>
       <c r="I37" t="n" s="305">
-        <v>-1.6861078023042524</v>
+        <v>-1.6861078023042517</v>
       </c>
     </row>
     <row r="38">
@@ -6086,13 +6086,13 @@
         <v>37.0</v>
       </c>
       <c r="F38" t="n" s="302">
-        <v>0.19463317584410897</v>
+        <v>0.19463317584410922</v>
       </c>
       <c r="G38" t="n" s="303">
         <v>-1.1681893173528313</v>
       </c>
       <c r="H38" t="n" s="304">
-        <v>0.20637761591300968</v>
+        <v>0.2063776159130097</v>
       </c>
       <c r="I38" t="n" s="305">
         <v>-1.1546796574311202</v>
@@ -6115,16 +6115,16 @@
         <v>38.0</v>
       </c>
       <c r="F39" t="n" s="302">
-        <v>0.41496850755767994</v>
+        <v>0.41496850755768006</v>
       </c>
       <c r="G39" t="n" s="303">
-        <v>-0.42201751880513144</v>
+        <v>-0.4220175188051331</v>
       </c>
       <c r="H39" t="n" s="304">
-        <v>0.46530796781389605</v>
+        <v>0.46530796781389594</v>
       </c>
       <c r="I39" t="n" s="305">
-        <v>-0.6185447414003507</v>
+        <v>-0.6185447414003516</v>
       </c>
     </row>
     <row r="40">
@@ -6144,16 +6144,16 @@
         <v>39.0</v>
       </c>
       <c r="F40" t="n" s="302">
-        <v>0.8215346418971216</v>
+        <v>0.8215346418971182</v>
       </c>
       <c r="G40" t="n" s="303">
-        <v>0.021526799802784685</v>
+        <v>0.021526799802776414</v>
       </c>
       <c r="H40" t="n" s="304">
-        <v>0.8757477888458456</v>
+        <v>0.8757477888458365</v>
       </c>
       <c r="I40" t="n" s="305">
-        <v>0.08170081634275897</v>
+        <v>0.08170081634274415</v>
       </c>
     </row>
     <row r="41">
@@ -6173,16 +6173,16 @@
         <v>40.0</v>
       </c>
       <c r="F41" t="n" s="302">
-        <v>0.12522658181692037</v>
+        <v>0.1252265818169204</v>
       </c>
       <c r="G41" t="n" s="303">
         <v>-1.8463877351951008</v>
       </c>
       <c r="H41" t="n" s="304">
-        <v>0.12787013827210617</v>
+        <v>0.12787013827210628</v>
       </c>
       <c r="I41" t="n" s="305">
-        <v>-1.8235056772261644</v>
+        <v>-1.823505677226162</v>
       </c>
     </row>
     <row r="42">
@@ -6202,16 +6202,16 @@
         <v>41.0</v>
       </c>
       <c r="F42" t="n" s="302">
-        <v>0.6806017701681794</v>
+        <v>0.6806017701681798</v>
       </c>
       <c r="G42" t="n" s="303">
-        <v>-0.14651108077327663</v>
+        <v>-0.14651108077327601</v>
       </c>
       <c r="H42" t="n" s="304">
-        <v>0.6972924386174562</v>
+        <v>0.6972924386174565</v>
       </c>
       <c r="I42" t="n" s="305">
-        <v>-0.12010168753318351</v>
+        <v>-0.12010168753318312</v>
       </c>
     </row>
     <row r="43">
@@ -6231,16 +6231,16 @@
         <v>42.0</v>
       </c>
       <c r="F43" t="n" s="302">
-        <v>1.0871847507714127</v>
+        <v>1.0871847507714134</v>
       </c>
       <c r="G43" t="n" s="303">
-        <v>0.38652323772895114</v>
+        <v>0.38652323772895186</v>
       </c>
       <c r="H43" t="n" s="304">
-        <v>1.143028342128478</v>
+        <v>1.1430283421284784</v>
       </c>
       <c r="I43" t="n" s="305">
-        <v>0.44456748458158823</v>
+        <v>0.444567484581589</v>
       </c>
     </row>
     <row r="44">
@@ -6260,10 +6260,10 @@
         <v>43.0</v>
       </c>
       <c r="F44" t="n" s="302">
-        <v>0.8399249291521776</v>
+        <v>0.8399249291521781</v>
       </c>
       <c r="G44" t="n" s="303">
-        <v>0.09290803492175342</v>
+        <v>0.092908034921754</v>
       </c>
       <c r="H44" t="n" s="304">
         <v>0.8101366652920132</v>
@@ -6289,16 +6289,16 @@
         <v>44.0</v>
       </c>
       <c r="F45" t="n" s="302">
-        <v>3.427000169701101</v>
+        <v>3.4270001697010968</v>
       </c>
       <c r="G45" t="n" s="303">
-        <v>2.1608903105534756</v>
+        <v>2.1608903105534716</v>
       </c>
       <c r="H45" t="n" s="304">
-        <v>3.3769083410956844</v>
+        <v>3.3769083410956826</v>
       </c>
       <c r="I45" t="n" s="305">
-        <v>2.143443177635146</v>
+        <v>2.1434431776351426</v>
       </c>
     </row>
     <row r="46">
@@ -6318,16 +6318,16 @@
         <v>45.0</v>
       </c>
       <c r="F46" t="n" s="302">
-        <v>0.53915750879375</v>
+        <v>0.5391575087937485</v>
       </c>
       <c r="G46" t="n" s="303">
-        <v>-0.425580038783622</v>
+        <v>-0.4255800387836241</v>
       </c>
       <c r="H46" t="n" s="304">
-        <v>0.5347458589349718</v>
+        <v>0.5347458589349707</v>
       </c>
       <c r="I46" t="n" s="305">
-        <v>-0.4399829861735602</v>
+        <v>-0.4399829861735611</v>
       </c>
     </row>
     <row r="47">
@@ -6347,16 +6347,16 @@
         <v>46.0</v>
       </c>
       <c r="F47" t="n" s="302">
-        <v>0.777635600979231</v>
+        <v>0.7776356009792306</v>
       </c>
       <c r="G47" t="n" s="303">
-        <v>-0.025956232264213064</v>
+        <v>-0.025956232264214174</v>
       </c>
       <c r="H47" t="n" s="304">
-        <v>0.7974078514537376</v>
+        <v>0.7974078514537367</v>
       </c>
       <c r="I47" t="n" s="305">
-        <v>-0.013828328758218655</v>
+        <v>-0.013828328758219988</v>
       </c>
     </row>
     <row r="48">
@@ -6376,16 +6376,16 @@
         <v>47.0</v>
       </c>
       <c r="F48" t="n" s="302">
-        <v>0.41292098918585124</v>
+        <v>0.4129209891858505</v>
       </c>
       <c r="G48" t="n" s="303">
-        <v>-0.495083222619697</v>
+        <v>-0.4950832226197161</v>
       </c>
       <c r="H48" t="n" s="304">
-        <v>0.4018897957875165</v>
+        <v>0.40188979578750883</v>
       </c>
       <c r="I48" t="n" s="305">
-        <v>-0.64744687931409</v>
+        <v>-0.6474468793141199</v>
       </c>
     </row>
     <row r="49">
@@ -6405,13 +6405,13 @@
         <v>48.0</v>
       </c>
       <c r="F49" t="n" s="302">
-        <v>0.07817679016973897</v>
+        <v>0.07817679016973914</v>
       </c>
       <c r="G49" t="n" s="303">
-        <v>-1.3708221231651332</v>
+        <v>-1.3708221231651354</v>
       </c>
       <c r="H49" t="n" s="304">
-        <v>0.04617596924369455</v>
+        <v>0.04617596924369475</v>
       </c>
       <c r="I49" t="n" s="305">
         <v>-2.2373092784296364</v>
@@ -6434,16 +6434,16 @@
         <v>49.0</v>
       </c>
       <c r="F50" t="n" s="302">
-        <v>0.3482878196736277</v>
+        <v>0.34828781967362915</v>
       </c>
       <c r="G50" t="n" s="303">
-        <v>-0.8368826437145849</v>
+        <v>-0.83688264371458</v>
       </c>
       <c r="H50" t="n" s="304">
-        <v>0.3528963687246729</v>
+        <v>0.35289636872467417</v>
       </c>
       <c r="I50" t="n" s="305">
-        <v>-0.8339348327536205</v>
+        <v>-0.8339348327536154</v>
       </c>
     </row>
     <row r="51">
@@ -6463,16 +6463,16 @@
         <v>50.0</v>
       </c>
       <c r="F51" t="n" s="302">
-        <v>0.21113978757304017</v>
+        <v>0.21113978757304072</v>
       </c>
       <c r="G51" t="n" s="303">
-        <v>-1.2762561986830732</v>
+        <v>-1.276256198683084</v>
       </c>
       <c r="H51" t="n" s="304">
-        <v>0.1704011962079637</v>
+        <v>0.17040119620796365</v>
       </c>
       <c r="I51" t="n" s="305">
-        <v>-1.5097001003639554</v>
+        <v>-1.5097001003639634</v>
       </c>
     </row>
   </sheetData>
@@ -6551,7 +6551,7 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="316">
-        <v>1.0</v>
+        <v>10169.0</v>
       </c>
       <c r="F2" t="n" s="317">
         <v>3.0</v>
@@ -6563,13 +6563,13 @@
         <v>21.0</v>
       </c>
       <c r="I2" t="n" s="320">
-        <v>-0.9930523504314581</v>
+        <v>-0.993052350431458</v>
       </c>
       <c r="J2" t="n" s="321">
         <v>0.4795694233002826</v>
       </c>
       <c r="K2" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="3">
@@ -6586,7 +6586,7 @@
         <v>5.0</v>
       </c>
       <c r="E3" t="n" s="316">
-        <v>2.0</v>
+        <v>10170.0</v>
       </c>
       <c r="F3" t="n" s="317">
         <v>3.0</v>
@@ -6598,13 +6598,13 @@
         <v>21.0</v>
       </c>
       <c r="I3" t="n" s="320">
-        <v>-0.2676359771150429</v>
+        <v>-0.26763597711504505</v>
       </c>
       <c r="J3" t="n" s="321">
         <v>0.492168131298214</v>
       </c>
       <c r="K3" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="4">
@@ -6621,7 +6621,7 @@
         <v>7.0</v>
       </c>
       <c r="E4" t="n" s="316">
-        <v>3.0</v>
+        <v>10171.0</v>
       </c>
       <c r="F4" t="n" s="317">
         <v>3.0</v>
@@ -6633,13 +6633,13 @@
         <v>21.0</v>
       </c>
       <c r="I4" t="n" s="320">
-        <v>2.1498831483009084</v>
+        <v>2.1498831483011855</v>
       </c>
       <c r="J4" t="n" s="321">
-        <v>1.159636711289808</v>
+        <v>1.1596367112898966</v>
       </c>
       <c r="K4" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="5">
@@ -6656,7 +6656,7 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="316">
-        <v>4.0</v>
+        <v>10172.0</v>
       </c>
       <c r="F5" t="n" s="317">
         <v>3.0</v>
@@ -6668,13 +6668,13 @@
         <v>21.0</v>
       </c>
       <c r="I5" t="n" s="320">
-        <v>-1.2168859420624354</v>
+        <v>-1.2168859420624356</v>
       </c>
       <c r="J5" t="n" s="321">
-        <v>0.4732394177749282</v>
+        <v>0.4732394177749278</v>
       </c>
       <c r="K5" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="6">
@@ -6691,7 +6691,7 @@
         <v>6.0</v>
       </c>
       <c r="E6" t="n" s="316">
-        <v>5.0</v>
+        <v>10174.0</v>
       </c>
       <c r="F6" t="n" s="317">
         <v>3.0</v>
@@ -6703,13 +6703,13 @@
         <v>21.0</v>
       </c>
       <c r="I6" t="n" s="320">
-        <v>-0.5106770625218339</v>
+        <v>-0.5106770625218336</v>
       </c>
       <c r="J6" t="n" s="321">
         <v>0.4904748096384831</v>
       </c>
       <c r="K6" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="7">
@@ -6726,7 +6726,7 @@
         <v>7.0</v>
       </c>
       <c r="E7" t="n" s="316">
-        <v>6.0</v>
+        <v>10175.0</v>
       </c>
       <c r="F7" t="n" s="317">
         <v>3.0</v>
@@ -6738,13 +6738,13 @@
         <v>21.0</v>
       </c>
       <c r="I7" t="n" s="320">
-        <v>0.7055839082132351</v>
+        <v>0.7055839082132235</v>
       </c>
       <c r="J7" t="n" s="321">
         <v>0.5573676256279732</v>
       </c>
       <c r="K7" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="8">
@@ -6761,7 +6761,7 @@
         <v>3.0</v>
       </c>
       <c r="E8" t="n" s="316">
-        <v>7.0</v>
+        <v>10176.0</v>
       </c>
       <c r="F8" t="n" s="317">
         <v>3.0</v>
@@ -6773,13 +6773,13 @@
         <v>21.0</v>
       </c>
       <c r="I8" t="n" s="320">
-        <v>-0.9930523504314581</v>
+        <v>-0.993052350431458</v>
       </c>
       <c r="J8" t="n" s="321">
         <v>0.4795694233002826</v>
       </c>
       <c r="K8" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="9">
@@ -6796,7 +6796,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" t="n" s="316">
-        <v>8.0</v>
+        <v>10179.0</v>
       </c>
       <c r="F9" t="n" s="317">
         <v>3.0</v>
@@ -6808,13 +6808,13 @@
         <v>21.0</v>
       </c>
       <c r="I9" t="n" s="320">
-        <v>1.009239142370697</v>
+        <v>1.0092391423706775</v>
       </c>
       <c r="J9" t="n" s="321">
-        <v>0.6186906438011105</v>
+        <v>0.6186906438011172</v>
       </c>
       <c r="K9" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="10">
@@ -6831,7 +6831,7 @@
         <v>4.0</v>
       </c>
       <c r="E10" t="n" s="316">
-        <v>9.0</v>
+        <v>10181.0</v>
       </c>
       <c r="F10" t="n" s="317">
         <v>3.0</v>
@@ -6843,13 +6843,13 @@
         <v>21.0</v>
       </c>
       <c r="I10" t="n" s="320">
-        <v>-2.048381413130973</v>
+        <v>-2.0483814131309717</v>
       </c>
       <c r="J10" t="n" s="321">
         <v>0.5029840938829641</v>
       </c>
       <c r="K10" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="11">
@@ -6866,7 +6866,7 @@
         <v>5.0</v>
       </c>
       <c r="E11" t="n" s="316">
-        <v>10.0</v>
+        <v>10183.0</v>
       </c>
       <c r="F11" t="n" s="317">
         <v>3.0</v>
@@ -6878,13 +6878,13 @@
         <v>21.0</v>
       </c>
       <c r="I11" t="n" s="320">
-        <v>-0.9930523504314581</v>
+        <v>-0.993052350431458</v>
       </c>
       <c r="J11" t="n" s="321">
         <v>0.4795694233002826</v>
       </c>
       <c r="K11" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="12">
@@ -6901,7 +6901,7 @@
         <v>4.0</v>
       </c>
       <c r="E12" t="n" s="316">
-        <v>11.0</v>
+        <v>10184.0</v>
       </c>
       <c r="F12" t="n" s="317">
         <v>3.0</v>
@@ -6913,13 +6913,13 @@
         <v>21.0</v>
       </c>
       <c r="I12" t="n" s="320">
-        <v>-0.9930523504314581</v>
+        <v>-0.993052350431458</v>
       </c>
       <c r="J12" t="n" s="321">
         <v>0.4795694233002826</v>
       </c>
       <c r="K12" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="13">
@@ -6936,7 +6936,7 @@
         <v>5.0</v>
       </c>
       <c r="E13" t="n" s="316">
-        <v>12.0</v>
+        <v>10185.0</v>
       </c>
       <c r="F13" t="n" s="317">
         <v>3.0</v>
@@ -6948,13 +6948,13 @@
         <v>21.0</v>
       </c>
       <c r="I13" t="n" s="320">
-        <v>-0.5106770625218339</v>
+        <v>-0.5106770625218336</v>
       </c>
       <c r="J13" t="n" s="321">
         <v>0.4904748096384831</v>
       </c>
       <c r="K13" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="14">
@@ -6971,7 +6971,7 @@
         <v>7.0</v>
       </c>
       <c r="E14" t="n" s="316">
-        <v>13.0</v>
+        <v>10186.0</v>
       </c>
       <c r="F14" t="n" s="317">
         <v>3.0</v>
@@ -6983,13 +6983,13 @@
         <v>21.0</v>
       </c>
       <c r="I14" t="n" s="320">
-        <v>2.1498831483009084</v>
+        <v>2.1498831483011855</v>
       </c>
       <c r="J14" t="n" s="321">
-        <v>1.159636711289808</v>
+        <v>1.1596367112898966</v>
       </c>
       <c r="K14" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="15">
@@ -7006,7 +7006,7 @@
         <v>5.0</v>
       </c>
       <c r="E15" t="n" s="316">
-        <v>14.0</v>
+        <v>10188.0</v>
       </c>
       <c r="F15" t="n" s="317">
         <v>3.0</v>
@@ -7018,13 +7018,13 @@
         <v>21.0</v>
       </c>
       <c r="I15" t="n" s="320">
-        <v>-0.032357424661105076</v>
+        <v>-0.03235742466110946</v>
       </c>
       <c r="J15" t="n" s="321">
-        <v>0.49538618204588697</v>
+        <v>0.4953861820458861</v>
       </c>
       <c r="K15" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="16">
@@ -7041,7 +7041,7 @@
         <v>5.0</v>
       </c>
       <c r="E16" t="n" s="316">
-        <v>15.0</v>
+        <v>10189.0</v>
       </c>
       <c r="F16" t="n" s="317">
         <v>3.0</v>
@@ -7053,13 +7053,13 @@
         <v>21.0</v>
       </c>
       <c r="I16" t="n" s="320">
-        <v>0.44272013536683535</v>
+        <v>0.44272013536683635</v>
       </c>
       <c r="J16" t="n" s="321">
-        <v>0.5233281842144757</v>
+        <v>0.5233281842144747</v>
       </c>
       <c r="K16" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="17">
@@ -7076,7 +7076,7 @@
         <v>3.0</v>
       </c>
       <c r="E17" t="n" s="316">
-        <v>16.0</v>
+        <v>10190.0</v>
       </c>
       <c r="F17" t="n" s="317">
         <v>3.0</v>
@@ -7088,13 +7088,13 @@
         <v>21.0</v>
       </c>
       <c r="I17" t="n" s="320">
-        <v>-0.7563836941438464</v>
+        <v>-0.7563836941438447</v>
       </c>
       <c r="J17" t="n" s="321">
         <v>0.4862975080186216</v>
       </c>
       <c r="K17" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="18">
@@ -7111,7 +7111,7 @@
         <v>4.0</v>
       </c>
       <c r="E18" t="n" s="316">
-        <v>17.0</v>
+        <v>10191.0</v>
       </c>
       <c r="F18" t="n" s="317">
         <v>3.0</v>
@@ -7123,13 +7123,13 @@
         <v>21.0</v>
       </c>
       <c r="I18" t="n" s="320">
-        <v>-0.2676359771150429</v>
+        <v>-0.26763597711504505</v>
       </c>
       <c r="J18" t="n" s="321">
         <v>0.492168131298214</v>
       </c>
       <c r="K18" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="19">
@@ -7146,7 +7146,7 @@
         <v>3.0</v>
       </c>
       <c r="E19" t="n" s="316">
-        <v>18.0</v>
+        <v>10192.0</v>
       </c>
       <c r="F19" t="n" s="317">
         <v>3.0</v>
@@ -7158,13 +7158,13 @@
         <v>21.0</v>
       </c>
       <c r="I19" t="n" s="320">
-        <v>0.44272013536683535</v>
+        <v>0.44272013536683635</v>
       </c>
       <c r="J19" t="n" s="321">
-        <v>0.5233281842144757</v>
+        <v>0.5233281842144747</v>
       </c>
       <c r="K19" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="20">
@@ -7181,7 +7181,7 @@
         <v>6.0</v>
       </c>
       <c r="E20" t="n" s="316">
-        <v>19.0</v>
+        <v>10193.0</v>
       </c>
       <c r="F20" t="n" s="317">
         <v>3.0</v>
@@ -7193,13 +7193,13 @@
         <v>21.0</v>
       </c>
       <c r="I20" t="n" s="320">
-        <v>-0.2676359771150429</v>
+        <v>-0.26763597711504505</v>
       </c>
       <c r="J20" t="n" s="321">
         <v>0.492168131298214</v>
       </c>
       <c r="K20" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="21">
@@ -7216,7 +7216,7 @@
         <v>5.0</v>
       </c>
       <c r="E21" t="n" s="316">
-        <v>20.0</v>
+        <v>10197.0</v>
       </c>
       <c r="F21" t="n" s="317">
         <v>3.0</v>
@@ -7228,13 +7228,13 @@
         <v>21.0</v>
       </c>
       <c r="I21" t="n" s="320">
-        <v>-0.2676359771150429</v>
+        <v>-0.26763597711504505</v>
       </c>
       <c r="J21" t="n" s="321">
         <v>0.492168131298214</v>
       </c>
       <c r="K21" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="22">
@@ -7251,7 +7251,7 @@
         <v>5.0</v>
       </c>
       <c r="E22" t="n" s="316">
-        <v>21.0</v>
+        <v>10198.0</v>
       </c>
       <c r="F22" t="n" s="317">
         <v>3.0</v>
@@ -7263,13 +7263,13 @@
         <v>21.0</v>
       </c>
       <c r="I22" t="n" s="320">
-        <v>0.44272013536683535</v>
+        <v>0.44272013536683635</v>
       </c>
       <c r="J22" t="n" s="321">
-        <v>0.5233281842144757</v>
+        <v>0.5233281842144747</v>
       </c>
       <c r="K22" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="23">
@@ -7286,7 +7286,7 @@
         <v>4.0</v>
       </c>
       <c r="E23" t="n" s="316">
-        <v>22.0</v>
+        <v>10199.0</v>
       </c>
       <c r="F23" t="n" s="317">
         <v>3.0</v>
@@ -7298,13 +7298,13 @@
         <v>21.0</v>
       </c>
       <c r="I23" t="n" s="320">
-        <v>-0.7563836941438464</v>
+        <v>-0.7563836941438447</v>
       </c>
       <c r="J23" t="n" s="321">
         <v>0.4862975080186216</v>
       </c>
       <c r="K23" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="24">
@@ -7321,7 +7321,7 @@
         <v>7.0</v>
       </c>
       <c r="E24" t="n" s="316">
-        <v>23.0</v>
+        <v>10200.0</v>
       </c>
       <c r="F24" t="n" s="317">
         <v>3.0</v>
@@ -7333,13 +7333,13 @@
         <v>21.0</v>
       </c>
       <c r="I24" t="n" s="320">
-        <v>1.4045312768218343</v>
+        <v>1.4045312768218305</v>
       </c>
       <c r="J24" t="n" s="321">
-        <v>0.7444374535487154</v>
+        <v>0.7444374535486978</v>
       </c>
       <c r="K24" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="25">
@@ -7356,7 +7356,7 @@
         <v>5.0</v>
       </c>
       <c r="E25" t="n" s="316">
-        <v>24.0</v>
+        <v>10201.0</v>
       </c>
       <c r="F25" t="n" s="317">
         <v>3.0</v>
@@ -7368,13 +7368,13 @@
         <v>21.0</v>
       </c>
       <c r="I25" t="n" s="320">
-        <v>-0.032357424661105076</v>
+        <v>-0.03235742466110946</v>
       </c>
       <c r="J25" t="n" s="321">
-        <v>0.49538618204588697</v>
+        <v>0.4953861820458861</v>
       </c>
       <c r="K25" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="26">
@@ -7391,7 +7391,7 @@
         <v>6.0</v>
       </c>
       <c r="E26" t="n" s="316">
-        <v>25.0</v>
+        <v>10202.0</v>
       </c>
       <c r="F26" t="n" s="317">
         <v>3.0</v>
@@ -7403,13 +7403,13 @@
         <v>21.0</v>
       </c>
       <c r="I26" t="n" s="320">
-        <v>0.44272013536683535</v>
+        <v>0.44272013536683635</v>
       </c>
       <c r="J26" t="n" s="321">
-        <v>0.5233281842144757</v>
+        <v>0.5233281842144747</v>
       </c>
       <c r="K26" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="27">
@@ -7426,7 +7426,7 @@
         <v>7.0</v>
       </c>
       <c r="E27" t="n" s="316">
-        <v>26.0</v>
+        <v>10203.0</v>
       </c>
       <c r="F27" t="n" s="317">
         <v>3.0</v>
@@ -7438,13 +7438,13 @@
         <v>21.0</v>
       </c>
       <c r="I27" t="n" s="320">
-        <v>2.1498831483009084</v>
+        <v>2.1498831483011855</v>
       </c>
       <c r="J27" t="n" s="321">
-        <v>1.159636711289808</v>
+        <v>1.1596367112898966</v>
       </c>
       <c r="K27" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="28">
@@ -7461,7 +7461,7 @@
         <v>7.0</v>
       </c>
       <c r="E28" t="n" s="316">
-        <v>27.0</v>
+        <v>10204.0</v>
       </c>
       <c r="F28" t="n" s="317">
         <v>3.0</v>
@@ -7473,13 +7473,13 @@
         <v>21.0</v>
       </c>
       <c r="I28" t="n" s="320">
-        <v>-0.032357424661105076</v>
+        <v>-0.03235742466110946</v>
       </c>
       <c r="J28" t="n" s="321">
-        <v>0.49538618204588697</v>
+        <v>0.4953861820458861</v>
       </c>
       <c r="K28" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="29">
@@ -7496,7 +7496,7 @@
         <v>6.0</v>
       </c>
       <c r="E29" t="n" s="316">
-        <v>28.0</v>
+        <v>10206.0</v>
       </c>
       <c r="F29" t="n" s="317">
         <v>3.0</v>
@@ -7508,13 +7508,13 @@
         <v>21.0</v>
       </c>
       <c r="I29" t="n" s="320">
-        <v>0.44272013536683535</v>
+        <v>0.44272013536683635</v>
       </c>
       <c r="J29" t="n" s="321">
-        <v>0.5233281842144757</v>
+        <v>0.5233281842144747</v>
       </c>
       <c r="K29" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="30">
@@ -7531,7 +7531,7 @@
         <v>6.0</v>
       </c>
       <c r="E30" t="n" s="316">
-        <v>29.0</v>
+        <v>10208.0</v>
       </c>
       <c r="F30" t="n" s="317">
         <v>3.0</v>
@@ -7543,13 +7543,13 @@
         <v>21.0</v>
       </c>
       <c r="I30" t="n" s="320">
-        <v>0.44272013536683535</v>
+        <v>0.44272013536683635</v>
       </c>
       <c r="J30" t="n" s="321">
-        <v>0.5233281842144757</v>
+        <v>0.5233281842144747</v>
       </c>
       <c r="K30" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="31">
@@ -7566,7 +7566,7 @@
         <v>5.0</v>
       </c>
       <c r="E31" t="n" s="316">
-        <v>30.0</v>
+        <v>10209.0</v>
       </c>
       <c r="F31" t="n" s="317">
         <v>3.0</v>
@@ -7578,13 +7578,13 @@
         <v>21.0</v>
       </c>
       <c r="I31" t="n" s="320">
-        <v>-0.2676359771150429</v>
+        <v>-0.26763597711504505</v>
       </c>
       <c r="J31" t="n" s="321">
         <v>0.492168131298214</v>
       </c>
       <c r="K31" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="32">
@@ -7601,7 +7601,7 @@
         <v>7.0</v>
       </c>
       <c r="E32" t="n" s="316">
-        <v>31.0</v>
+        <v>10210.0</v>
       </c>
       <c r="F32" t="n" s="317">
         <v>3.0</v>
@@ -7613,13 +7613,13 @@
         <v>21.0</v>
       </c>
       <c r="I32" t="n" s="320">
-        <v>2.1498831483009084</v>
+        <v>2.1498831483011855</v>
       </c>
       <c r="J32" t="n" s="321">
-        <v>1.159636711289808</v>
+        <v>1.1596367112898966</v>
       </c>
       <c r="K32" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="33">
@@ -7636,7 +7636,7 @@
         <v>7.0</v>
       </c>
       <c r="E33" t="n" s="316">
-        <v>32.0</v>
+        <v>10213.0</v>
       </c>
       <c r="F33" t="n" s="317">
         <v>3.0</v>
@@ -7648,13 +7648,13 @@
         <v>21.0</v>
       </c>
       <c r="I33" t="n" s="320">
-        <v>2.1498831483009084</v>
+        <v>2.1498831483011855</v>
       </c>
       <c r="J33" t="n" s="321">
-        <v>1.159636711289808</v>
+        <v>1.1596367112898966</v>
       </c>
       <c r="K33" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="34">
@@ -7671,7 +7671,7 @@
         <v>7.0</v>
       </c>
       <c r="E34" t="n" s="316">
-        <v>33.0</v>
+        <v>10214.0</v>
       </c>
       <c r="F34" t="n" s="317">
         <v>3.0</v>
@@ -7683,13 +7683,13 @@
         <v>21.0</v>
       </c>
       <c r="I34" t="n" s="320">
-        <v>2.1498831483009084</v>
+        <v>2.1498831483011855</v>
       </c>
       <c r="J34" t="n" s="321">
-        <v>1.159636711289808</v>
+        <v>1.1596367112898966</v>
       </c>
       <c r="K34" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="35">
@@ -7706,7 +7706,7 @@
         <v>4.0</v>
       </c>
       <c r="E35" t="n" s="316">
-        <v>34.0</v>
+        <v>10215.0</v>
       </c>
       <c r="F35" t="n" s="317">
         <v>3.0</v>
@@ -7718,13 +7718,13 @@
         <v>21.0</v>
       </c>
       <c r="I35" t="n" s="320">
-        <v>-0.5106770625218339</v>
+        <v>-0.5106770625218336</v>
       </c>
       <c r="J35" t="n" s="321">
         <v>0.4904748096384831</v>
       </c>
       <c r="K35" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="36">
@@ -7741,7 +7741,7 @@
         <v>6.0</v>
       </c>
       <c r="E36" t="n" s="316">
-        <v>35.0</v>
+        <v>10216.0</v>
       </c>
       <c r="F36" t="n" s="317">
         <v>3.0</v>
@@ -7753,13 +7753,13 @@
         <v>21.0</v>
       </c>
       <c r="I36" t="n" s="320">
-        <v>0.44272013536683535</v>
+        <v>0.44272013536683635</v>
       </c>
       <c r="J36" t="n" s="321">
-        <v>0.5233281842144757</v>
+        <v>0.5233281842144747</v>
       </c>
       <c r="K36" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="37">
@@ -7776,7 +7776,7 @@
         <v>4.0</v>
       </c>
       <c r="E37" t="n" s="316">
-        <v>36.0</v>
+        <v>10217.0</v>
       </c>
       <c r="F37" t="n" s="317">
         <v>3.0</v>
@@ -7788,13 +7788,13 @@
         <v>21.0</v>
       </c>
       <c r="I37" t="n" s="320">
-        <v>-0.7563836941438464</v>
+        <v>-0.7563836941438447</v>
       </c>
       <c r="J37" t="n" s="321">
         <v>0.4862975080186216</v>
       </c>
       <c r="K37" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="38">
@@ -7811,7 +7811,7 @@
         <v>4.0</v>
       </c>
       <c r="E38" t="n" s="316">
-        <v>37.0</v>
+        <v>10218.0</v>
       </c>
       <c r="F38" t="n" s="317">
         <v>3.0</v>
@@ -7823,13 +7823,13 @@
         <v>21.0</v>
       </c>
       <c r="I38" t="n" s="320">
-        <v>-0.7563836941438464</v>
+        <v>-0.7563836941438447</v>
       </c>
       <c r="J38" t="n" s="321">
         <v>0.4862975080186216</v>
       </c>
       <c r="K38" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="39">
@@ -7846,7 +7846,7 @@
         <v>1.0</v>
       </c>
       <c r="E39" t="n" s="316">
-        <v>38.0</v>
+        <v>10219.0</v>
       </c>
       <c r="F39" t="n" s="317">
         <v>3.0</v>
@@ -7858,13 +7858,13 @@
         <v>21.0</v>
       </c>
       <c r="I39" t="n" s="320">
-        <v>-2.2767519985104383</v>
+        <v>-2.2767519985104374</v>
       </c>
       <c r="J39" t="n" s="321">
-        <v>0.5472876933732729</v>
+        <v>0.5472876933732728</v>
       </c>
       <c r="K39" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="40">
@@ -7881,7 +7881,7 @@
         <v>7.0</v>
       </c>
       <c r="E40" t="n" s="316">
-        <v>39.0</v>
+        <v>10220.0</v>
       </c>
       <c r="F40" t="n" s="317">
         <v>3.0</v>
@@ -7893,13 +7893,13 @@
         <v>21.0</v>
       </c>
       <c r="I40" t="n" s="320">
-        <v>0.7055839082132351</v>
+        <v>0.7055839082132235</v>
       </c>
       <c r="J40" t="n" s="321">
         <v>0.5573676256279732</v>
       </c>
       <c r="K40" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="41">
@@ -7916,7 +7916,7 @@
         <v>5.0</v>
       </c>
       <c r="E41" t="n" s="316">
-        <v>40.0</v>
+        <v>10221.0</v>
       </c>
       <c r="F41" t="n" s="317">
         <v>3.0</v>
@@ -7928,13 +7928,13 @@
         <v>21.0</v>
       </c>
       <c r="I41" t="n" s="320">
-        <v>0.20095698578348803</v>
+        <v>0.20095698578349153</v>
       </c>
       <c r="J41" t="n" s="321">
-        <v>0.5044852547135559</v>
+        <v>0.504485254713555</v>
       </c>
       <c r="K41" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="42">
@@ -7951,7 +7951,7 @@
         <v>4.0</v>
       </c>
       <c r="E42" t="n" s="316">
-        <v>41.0</v>
+        <v>10223.0</v>
       </c>
       <c r="F42" t="n" s="317">
         <v>3.0</v>
@@ -7963,13 +7963,13 @@
         <v>21.0</v>
       </c>
       <c r="I42" t="n" s="320">
-        <v>-0.5106770625218339</v>
+        <v>-0.5106770625218336</v>
       </c>
       <c r="J42" t="n" s="321">
         <v>0.4904748096384831</v>
       </c>
       <c r="K42" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="43">
@@ -7986,7 +7986,7 @@
         <v>3.0</v>
       </c>
       <c r="E43" t="n" s="316">
-        <v>42.0</v>
+        <v>10224.0</v>
       </c>
       <c r="F43" t="n" s="317">
         <v>3.0</v>
@@ -7998,13 +7998,13 @@
         <v>21.0</v>
       </c>
       <c r="I43" t="n" s="320">
-        <v>-0.7563836941438464</v>
+        <v>-0.7563836941438447</v>
       </c>
       <c r="J43" t="n" s="321">
         <v>0.4862975080186216</v>
       </c>
       <c r="K43" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="44">
@@ -8021,7 +8021,7 @@
         <v>5.0</v>
       </c>
       <c r="E44" t="n" s="316">
-        <v>43.0</v>
+        <v>10227.0</v>
       </c>
       <c r="F44" t="n" s="317">
         <v>3.0</v>
@@ -8033,13 +8033,13 @@
         <v>21.0</v>
       </c>
       <c r="I44" t="n" s="320">
-        <v>-0.7563836941438464</v>
+        <v>-0.7563836941438447</v>
       </c>
       <c r="J44" t="n" s="321">
         <v>0.4862975080186216</v>
       </c>
       <c r="K44" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="45">
@@ -8056,7 +8056,7 @@
         <v>7.0</v>
       </c>
       <c r="E45" t="n" s="316">
-        <v>44.0</v>
+        <v>10228.0</v>
       </c>
       <c r="F45" t="n" s="317">
         <v>3.0</v>
@@ -8068,13 +8068,13 @@
         <v>21.0</v>
       </c>
       <c r="I45" t="n" s="320">
-        <v>-0.2676359771150429</v>
+        <v>-0.26763597711504505</v>
       </c>
       <c r="J45" t="n" s="321">
         <v>0.492168131298214</v>
       </c>
       <c r="K45" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="46">
@@ -8091,7 +8091,7 @@
         <v>6.0</v>
       </c>
       <c r="E46" t="n" s="316">
-        <v>45.0</v>
+        <v>10230.0</v>
       </c>
       <c r="F46" t="n" s="317">
         <v>3.0</v>
@@ -8103,13 +8103,13 @@
         <v>21.0</v>
       </c>
       <c r="I46" t="n" s="320">
-        <v>-0.2676359771150429</v>
+        <v>-0.26763597711504505</v>
       </c>
       <c r="J46" t="n" s="321">
         <v>0.492168131298214</v>
       </c>
       <c r="K46" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="47">
@@ -8126,7 +8126,7 @@
         <v>4.0</v>
       </c>
       <c r="E47" t="n" s="316">
-        <v>46.0</v>
+        <v>10231.0</v>
       </c>
       <c r="F47" t="n" s="317">
         <v>3.0</v>
@@ -8138,13 +8138,13 @@
         <v>21.0</v>
       </c>
       <c r="I47" t="n" s="320">
-        <v>-1.2168859420624354</v>
+        <v>-1.2168859420624356</v>
       </c>
       <c r="J47" t="n" s="321">
-        <v>0.4732394177749282</v>
+        <v>0.4732394177749278</v>
       </c>
       <c r="K47" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="48">
@@ -8161,7 +8161,7 @@
         <v>7.0</v>
       </c>
       <c r="E48" t="n" s="316">
-        <v>47.0</v>
+        <v>10232.0</v>
       </c>
       <c r="F48" t="n" s="317">
         <v>3.0</v>
@@ -8173,13 +8173,13 @@
         <v>21.0</v>
       </c>
       <c r="I48" t="n" s="320">
-        <v>1.009239142370697</v>
+        <v>1.0092391423706775</v>
       </c>
       <c r="J48" t="n" s="321">
-        <v>0.6186906438011105</v>
+        <v>0.6186906438011172</v>
       </c>
       <c r="K48" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="49">
@@ -8196,7 +8196,7 @@
         <v>2.0</v>
       </c>
       <c r="E49" t="n" s="316">
-        <v>48.0</v>
+        <v>10234.0</v>
       </c>
       <c r="F49" t="n" s="317">
         <v>3.0</v>
@@ -8208,13 +8208,13 @@
         <v>21.0</v>
       </c>
       <c r="I49" t="n" s="320">
-        <v>-2.2767519985104383</v>
+        <v>-2.2767519985104374</v>
       </c>
       <c r="J49" t="n" s="321">
-        <v>0.5472876933732729</v>
+        <v>0.5472876933732728</v>
       </c>
       <c r="K49" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="50">
@@ -8231,7 +8231,7 @@
         <v>4.0</v>
       </c>
       <c r="E50" t="n" s="316">
-        <v>49.0</v>
+        <v>10237.0</v>
       </c>
       <c r="F50" t="n" s="317">
         <v>3.0</v>
@@ -8243,13 +8243,13 @@
         <v>21.0</v>
       </c>
       <c r="I50" t="n" s="320">
-        <v>-0.2676359771150429</v>
+        <v>-0.26763597711504505</v>
       </c>
       <c r="J50" t="n" s="321">
         <v>0.492168131298214</v>
       </c>
       <c r="K50" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
     <row r="51">
@@ -8266,7 +8266,7 @@
         <v>6.0</v>
       </c>
       <c r="E51" t="n" s="316">
-        <v>50.0</v>
+        <v>10238.0</v>
       </c>
       <c r="F51" t="n" s="317">
         <v>3.0</v>
@@ -8278,13 +8278,13 @@
         <v>21.0</v>
       </c>
       <c r="I51" t="n" s="320">
-        <v>0.7055839082132351</v>
+        <v>0.7055839082132235</v>
       </c>
       <c r="J51" t="n" s="321">
         <v>0.5573676256279732</v>
       </c>
       <c r="K51" t="n" s="322">
-        <v>0.6833087765852213</v>
+        <v>0.6833087765852379</v>
       </c>
     </row>
   </sheetData>
